--- a/metrics/transfer_time/cleaned_data/nginx_05.nan.xlsx
+++ b/metrics/transfer_time/cleaned_data/nginx_05.nan.xlsx
@@ -639,17 +639,39 @@
       <c r="R2" t="n">
         <v>798</v>
       </c>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr"/>
+      <c r="S2" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U2" t="n">
+        <v>10820827</v>
+      </c>
+      <c r="V2" t="n">
+        <v>7195</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>996</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>687</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -706,17 +728,39 @@
       <c r="R3" t="n">
         <v>797</v>
       </c>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="inlineStr"/>
-      <c r="AC3" t="inlineStr"/>
+      <c r="S3" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U3" t="n">
+        <v>10820827</v>
+      </c>
+      <c r="V3" t="n">
+        <v>7195</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>996</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>687</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -773,17 +817,39 @@
       <c r="R4" t="n">
         <v>796</v>
       </c>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="inlineStr"/>
-      <c r="AC4" t="inlineStr"/>
+      <c r="S4" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U4" t="n">
+        <v>10820827</v>
+      </c>
+      <c r="V4" t="n">
+        <v>7195</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>996</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>687</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -840,17 +906,39 @@
       <c r="R5" t="n">
         <v>797</v>
       </c>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
-      <c r="AA5" t="inlineStr"/>
-      <c r="AB5" t="inlineStr"/>
-      <c r="AC5" t="inlineStr"/>
+      <c r="S5" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U5" t="n">
+        <v>10820827</v>
+      </c>
+      <c r="V5" t="n">
+        <v>7195</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>996</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>687</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -996,17 +1084,39 @@
       <c r="R7" t="n">
         <v>796</v>
       </c>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="inlineStr"/>
-      <c r="AA7" t="inlineStr"/>
-      <c r="AB7" t="inlineStr"/>
-      <c r="AC7" t="inlineStr"/>
+      <c r="S7" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U7" t="n">
+        <v>10820827</v>
+      </c>
+      <c r="V7" t="n">
+        <v>7195</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>996</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>687</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1063,17 +1173,39 @@
       <c r="R8" t="n">
         <v>795</v>
       </c>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr"/>
-      <c r="AA8" t="inlineStr"/>
-      <c r="AB8" t="inlineStr"/>
-      <c r="AC8" t="inlineStr"/>
+      <c r="S8" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U8" t="n">
+        <v>10820827</v>
+      </c>
+      <c r="V8" t="n">
+        <v>7195</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>996</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>687</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1130,17 +1262,39 @@
       <c r="R9" t="n">
         <v>794</v>
       </c>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr"/>
-      <c r="AA9" t="inlineStr"/>
-      <c r="AB9" t="inlineStr"/>
-      <c r="AC9" t="inlineStr"/>
+      <c r="S9" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U9" t="n">
+        <v>10820827</v>
+      </c>
+      <c r="V9" t="n">
+        <v>7195</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>996</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>687</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1197,17 +1351,39 @@
       <c r="R10" t="n">
         <v>793</v>
       </c>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
-      <c r="AB10" t="inlineStr"/>
-      <c r="AC10" t="inlineStr"/>
+      <c r="S10" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U10" t="n">
+        <v>10820827</v>
+      </c>
+      <c r="V10" t="n">
+        <v>7195</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>996</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>687</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1353,17 +1529,39 @@
       <c r="R12" t="n">
         <v>791</v>
       </c>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="inlineStr"/>
-      <c r="AA12" t="inlineStr"/>
-      <c r="AB12" t="inlineStr"/>
-      <c r="AC12" t="inlineStr"/>
+      <c r="S12" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U12" t="n">
+        <v>10821127</v>
+      </c>
+      <c r="V12" t="n">
+        <v>7193</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>998</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>12.184</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>612</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1420,17 +1618,39 @@
       <c r="R13" t="n">
         <v>791</v>
       </c>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="inlineStr"/>
-      <c r="AA13" t="inlineStr"/>
-      <c r="AB13" t="inlineStr"/>
-      <c r="AC13" t="inlineStr"/>
+      <c r="S13" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U13" t="n">
+        <v>10821127</v>
+      </c>
+      <c r="V13" t="n">
+        <v>7193</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>998</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>12.184</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>612</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1487,17 +1707,39 @@
       <c r="R14" t="n">
         <v>791</v>
       </c>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="inlineStr"/>
-      <c r="AA14" t="inlineStr"/>
-      <c r="AB14" t="inlineStr"/>
-      <c r="AC14" t="inlineStr"/>
+      <c r="S14" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U14" t="n">
+        <v>10821127</v>
+      </c>
+      <c r="V14" t="n">
+        <v>7193</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>998</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>12.184</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>612</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1554,17 +1796,39 @@
       <c r="R15" t="n">
         <v>791</v>
       </c>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr"/>
-      <c r="AA15" t="inlineStr"/>
-      <c r="AB15" t="inlineStr"/>
-      <c r="AC15" t="inlineStr"/>
+      <c r="S15" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U15" t="n">
+        <v>10821127</v>
+      </c>
+      <c r="V15" t="n">
+        <v>7193</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>998</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>12.184</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>612</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1710,17 +1974,39 @@
       <c r="R17" t="n">
         <v>807</v>
       </c>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
-      <c r="Z17" t="inlineStr"/>
-      <c r="AA17" t="inlineStr"/>
-      <c r="AB17" t="inlineStr"/>
-      <c r="AC17" t="inlineStr"/>
+      <c r="S17" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U17" t="n">
+        <v>10821427</v>
+      </c>
+      <c r="V17" t="n">
+        <v>7202</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>989</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>12.074</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>662</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1777,17 +2063,39 @@
       <c r="R18" t="n">
         <v>807</v>
       </c>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
-      <c r="Z18" t="inlineStr"/>
-      <c r="AA18" t="inlineStr"/>
-      <c r="AB18" t="inlineStr"/>
-      <c r="AC18" t="inlineStr"/>
+      <c r="S18" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U18" t="n">
+        <v>10821427</v>
+      </c>
+      <c r="V18" t="n">
+        <v>7202</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>989</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>12.074</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>662</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1844,17 +2152,39 @@
       <c r="R19" t="n">
         <v>807</v>
       </c>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr"/>
-      <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr"/>
-      <c r="Z19" t="inlineStr"/>
-      <c r="AA19" t="inlineStr"/>
-      <c r="AB19" t="inlineStr"/>
-      <c r="AC19" t="inlineStr"/>
+      <c r="S19" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U19" t="n">
+        <v>10821427</v>
+      </c>
+      <c r="V19" t="n">
+        <v>7202</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>989</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>12.074</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>662</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1911,17 +2241,39 @@
       <c r="R20" t="n">
         <v>807</v>
       </c>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="inlineStr"/>
-      <c r="Z20" t="inlineStr"/>
-      <c r="AA20" t="inlineStr"/>
-      <c r="AB20" t="inlineStr"/>
-      <c r="AC20" t="inlineStr"/>
+      <c r="S20" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U20" t="n">
+        <v>10821427</v>
+      </c>
+      <c r="V20" t="n">
+        <v>7202</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>989</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>12.074</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>662</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -2067,17 +2419,39 @@
       <c r="R22" t="n">
         <v>807</v>
       </c>
-      <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr"/>
-      <c r="W22" t="inlineStr"/>
-      <c r="X22" t="inlineStr"/>
-      <c r="Y22" t="inlineStr"/>
-      <c r="Z22" t="inlineStr"/>
-      <c r="AA22" t="inlineStr"/>
-      <c r="AB22" t="inlineStr"/>
-      <c r="AC22" t="inlineStr"/>
+      <c r="S22" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U22" t="n">
+        <v>10821726</v>
+      </c>
+      <c r="V22" t="n">
+        <v>7201</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>990</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>12.086</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>607</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -2134,17 +2508,39 @@
       <c r="R23" t="n">
         <v>806</v>
       </c>
-      <c r="S23" t="inlineStr"/>
-      <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr"/>
-      <c r="W23" t="inlineStr"/>
-      <c r="X23" t="inlineStr"/>
-      <c r="Y23" t="inlineStr"/>
-      <c r="Z23" t="inlineStr"/>
-      <c r="AA23" t="inlineStr"/>
-      <c r="AB23" t="inlineStr"/>
-      <c r="AC23" t="inlineStr"/>
+      <c r="S23" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U23" t="n">
+        <v>10821726</v>
+      </c>
+      <c r="V23" t="n">
+        <v>7201</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>990</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>12.086</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>607</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -2201,17 +2597,39 @@
       <c r="R24" t="n">
         <v>806</v>
       </c>
-      <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr"/>
-      <c r="W24" t="inlineStr"/>
-      <c r="X24" t="inlineStr"/>
-      <c r="Y24" t="inlineStr"/>
-      <c r="Z24" t="inlineStr"/>
-      <c r="AA24" t="inlineStr"/>
-      <c r="AB24" t="inlineStr"/>
-      <c r="AC24" t="inlineStr"/>
+      <c r="S24" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U24" t="n">
+        <v>10821726</v>
+      </c>
+      <c r="V24" t="n">
+        <v>7201</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>990</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>12.086</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>607</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -2268,17 +2686,39 @@
       <c r="R25" t="n">
         <v>808</v>
       </c>
-      <c r="S25" t="inlineStr"/>
-      <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr"/>
-      <c r="V25" t="inlineStr"/>
-      <c r="W25" t="inlineStr"/>
-      <c r="X25" t="inlineStr"/>
-      <c r="Y25" t="inlineStr"/>
-      <c r="Z25" t="inlineStr"/>
-      <c r="AA25" t="inlineStr"/>
-      <c r="AB25" t="inlineStr"/>
-      <c r="AC25" t="inlineStr"/>
+      <c r="S25" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U25" t="n">
+        <v>10821726</v>
+      </c>
+      <c r="V25" t="n">
+        <v>7201</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>990</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>12.086</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>607</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -2424,17 +2864,39 @@
       <c r="R27" t="n">
         <v>806</v>
       </c>
-      <c r="S27" t="inlineStr"/>
-      <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr"/>
-      <c r="W27" t="inlineStr"/>
-      <c r="X27" t="inlineStr"/>
-      <c r="Y27" t="inlineStr"/>
-      <c r="Z27" t="inlineStr"/>
-      <c r="AA27" t="inlineStr"/>
-      <c r="AB27" t="inlineStr"/>
-      <c r="AC27" t="inlineStr"/>
+      <c r="S27" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U27" t="n">
+        <v>10822026</v>
+      </c>
+      <c r="V27" t="n">
+        <v>7200</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>72</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>991</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>12.099</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>578</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -2491,17 +2953,39 @@
       <c r="R28" t="n">
         <v>805</v>
       </c>
-      <c r="S28" t="inlineStr"/>
-      <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr"/>
-      <c r="W28" t="inlineStr"/>
-      <c r="X28" t="inlineStr"/>
-      <c r="Y28" t="inlineStr"/>
-      <c r="Z28" t="inlineStr"/>
-      <c r="AA28" t="inlineStr"/>
-      <c r="AB28" t="inlineStr"/>
-      <c r="AC28" t="inlineStr"/>
+      <c r="S28" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U28" t="n">
+        <v>10822026</v>
+      </c>
+      <c r="V28" t="n">
+        <v>7200</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>72</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>991</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>12.099</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>578</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -2558,17 +3042,39 @@
       <c r="R29" t="n">
         <v>805</v>
       </c>
-      <c r="S29" t="inlineStr"/>
-      <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr"/>
-      <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr"/>
-      <c r="Z29" t="inlineStr"/>
-      <c r="AA29" t="inlineStr"/>
-      <c r="AB29" t="inlineStr"/>
-      <c r="AC29" t="inlineStr"/>
+      <c r="S29" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U29" t="n">
+        <v>10822026</v>
+      </c>
+      <c r="V29" t="n">
+        <v>7200</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>72</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>991</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>12.099</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>578</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -2625,17 +3131,39 @@
       <c r="R30" t="n">
         <v>804</v>
       </c>
-      <c r="S30" t="inlineStr"/>
-      <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
-      <c r="W30" t="inlineStr"/>
-      <c r="X30" t="inlineStr"/>
-      <c r="Y30" t="inlineStr"/>
-      <c r="Z30" t="inlineStr"/>
-      <c r="AA30" t="inlineStr"/>
-      <c r="AB30" t="inlineStr"/>
-      <c r="AC30" t="inlineStr"/>
+      <c r="S30" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U30" t="n">
+        <v>10822026</v>
+      </c>
+      <c r="V30" t="n">
+        <v>7200</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
+        <v>72</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>991</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>12.099</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>578</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -2781,17 +3309,39 @@
       <c r="R32" t="n">
         <v>804</v>
       </c>
-      <c r="S32" t="inlineStr"/>
-      <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
-      <c r="W32" t="inlineStr"/>
-      <c r="X32" t="inlineStr"/>
-      <c r="Y32" t="inlineStr"/>
-      <c r="Z32" t="inlineStr"/>
-      <c r="AA32" t="inlineStr"/>
-      <c r="AB32" t="inlineStr"/>
-      <c r="AC32" t="inlineStr"/>
+      <c r="S32" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U32" t="n">
+        <v>10822326</v>
+      </c>
+      <c r="V32" t="n">
+        <v>7198</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>993</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>12.123</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>548</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2848,17 +3398,39 @@
       <c r="R33" t="n">
         <v>804</v>
       </c>
-      <c r="S33" t="inlineStr"/>
-      <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr"/>
-      <c r="W33" t="inlineStr"/>
-      <c r="X33" t="inlineStr"/>
-      <c r="Y33" t="inlineStr"/>
-      <c r="Z33" t="inlineStr"/>
-      <c r="AA33" t="inlineStr"/>
-      <c r="AB33" t="inlineStr"/>
-      <c r="AC33" t="inlineStr"/>
+      <c r="S33" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U33" t="n">
+        <v>10822326</v>
+      </c>
+      <c r="V33" t="n">
+        <v>7198</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>993</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>12.123</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>548</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2915,17 +3487,39 @@
       <c r="R34" t="n">
         <v>804</v>
       </c>
-      <c r="S34" t="inlineStr"/>
-      <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr"/>
-      <c r="W34" t="inlineStr"/>
-      <c r="X34" t="inlineStr"/>
-      <c r="Y34" t="inlineStr"/>
-      <c r="Z34" t="inlineStr"/>
-      <c r="AA34" t="inlineStr"/>
-      <c r="AB34" t="inlineStr"/>
-      <c r="AC34" t="inlineStr"/>
+      <c r="S34" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U34" t="n">
+        <v>10822326</v>
+      </c>
+      <c r="V34" t="n">
+        <v>7198</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>993</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>12.123</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>548</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -2982,17 +3576,39 @@
       <c r="R35" t="n">
         <v>803</v>
       </c>
-      <c r="S35" t="inlineStr"/>
-      <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr"/>
-      <c r="W35" t="inlineStr"/>
-      <c r="X35" t="inlineStr"/>
-      <c r="Y35" t="inlineStr"/>
-      <c r="Z35" t="inlineStr"/>
-      <c r="AA35" t="inlineStr"/>
-      <c r="AB35" t="inlineStr"/>
-      <c r="AC35" t="inlineStr"/>
+      <c r="S35" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U35" t="n">
+        <v>10822326</v>
+      </c>
+      <c r="V35" t="n">
+        <v>7198</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>993</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>12.123</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>548</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -3138,17 +3754,39 @@
       <c r="R37" t="n">
         <v>803</v>
       </c>
-      <c r="S37" t="inlineStr"/>
-      <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
-      <c r="W37" t="inlineStr"/>
-      <c r="X37" t="inlineStr"/>
-      <c r="Y37" t="inlineStr"/>
-      <c r="Z37" t="inlineStr"/>
-      <c r="AA37" t="inlineStr"/>
-      <c r="AB37" t="inlineStr"/>
-      <c r="AC37" t="inlineStr"/>
+      <c r="S37" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U37" t="n">
+        <v>10822626</v>
+      </c>
+      <c r="V37" t="n">
+        <v>7198</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>993</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>12.123</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>609</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -3205,17 +3843,39 @@
       <c r="R38" t="n">
         <v>803</v>
       </c>
-      <c r="S38" t="inlineStr"/>
-      <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr"/>
-      <c r="W38" t="inlineStr"/>
-      <c r="X38" t="inlineStr"/>
-      <c r="Y38" t="inlineStr"/>
-      <c r="Z38" t="inlineStr"/>
-      <c r="AA38" t="inlineStr"/>
-      <c r="AB38" t="inlineStr"/>
-      <c r="AC38" t="inlineStr"/>
+      <c r="S38" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U38" t="n">
+        <v>10822626</v>
+      </c>
+      <c r="V38" t="n">
+        <v>7198</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>993</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>12.123</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>609</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -3272,17 +3932,39 @@
       <c r="R39" t="n">
         <v>805</v>
       </c>
-      <c r="S39" t="inlineStr"/>
-      <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr"/>
-      <c r="W39" t="inlineStr"/>
-      <c r="X39" t="inlineStr"/>
-      <c r="Y39" t="inlineStr"/>
-      <c r="Z39" t="inlineStr"/>
-      <c r="AA39" t="inlineStr"/>
-      <c r="AB39" t="inlineStr"/>
-      <c r="AC39" t="inlineStr"/>
+      <c r="S39" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U39" t="n">
+        <v>10822626</v>
+      </c>
+      <c r="V39" t="n">
+        <v>7198</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0</v>
+      </c>
+      <c r="X39" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>993</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>12.123</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>609</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -3339,17 +4021,39 @@
       <c r="R40" t="n">
         <v>804</v>
       </c>
-      <c r="S40" t="inlineStr"/>
-      <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr"/>
-      <c r="V40" t="inlineStr"/>
-      <c r="W40" t="inlineStr"/>
-      <c r="X40" t="inlineStr"/>
-      <c r="Y40" t="inlineStr"/>
-      <c r="Z40" t="inlineStr"/>
-      <c r="AA40" t="inlineStr"/>
-      <c r="AB40" t="inlineStr"/>
-      <c r="AC40" t="inlineStr"/>
+      <c r="S40" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U40" t="n">
+        <v>10822626</v>
+      </c>
+      <c r="V40" t="n">
+        <v>7198</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>993</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>12.123</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>609</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -3495,17 +4199,39 @@
       <c r="R42" t="n">
         <v>803</v>
       </c>
-      <c r="S42" t="inlineStr"/>
-      <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr"/>
-      <c r="W42" t="inlineStr"/>
-      <c r="X42" t="inlineStr"/>
-      <c r="Y42" t="inlineStr"/>
-      <c r="Z42" t="inlineStr"/>
-      <c r="AA42" t="inlineStr"/>
-      <c r="AB42" t="inlineStr"/>
-      <c r="AC42" t="inlineStr"/>
+      <c r="S42" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U42" t="n">
+        <v>10822926</v>
+      </c>
+      <c r="V42" t="n">
+        <v>7199</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0</v>
+      </c>
+      <c r="X42" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>992</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>12.111</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>602</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -3562,17 +4288,39 @@
       <c r="R43" t="n">
         <v>803</v>
       </c>
-      <c r="S43" t="inlineStr"/>
-      <c r="T43" t="inlineStr"/>
-      <c r="U43" t="inlineStr"/>
-      <c r="V43" t="inlineStr"/>
-      <c r="W43" t="inlineStr"/>
-      <c r="X43" t="inlineStr"/>
-      <c r="Y43" t="inlineStr"/>
-      <c r="Z43" t="inlineStr"/>
-      <c r="AA43" t="inlineStr"/>
-      <c r="AB43" t="inlineStr"/>
-      <c r="AC43" t="inlineStr"/>
+      <c r="S43" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U43" t="n">
+        <v>10822926</v>
+      </c>
+      <c r="V43" t="n">
+        <v>7199</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0</v>
+      </c>
+      <c r="X43" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>992</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>12.111</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>602</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -3629,17 +4377,39 @@
       <c r="R44" t="n">
         <v>804</v>
       </c>
-      <c r="S44" t="inlineStr"/>
-      <c r="T44" t="inlineStr"/>
-      <c r="U44" t="inlineStr"/>
-      <c r="V44" t="inlineStr"/>
-      <c r="W44" t="inlineStr"/>
-      <c r="X44" t="inlineStr"/>
-      <c r="Y44" t="inlineStr"/>
-      <c r="Z44" t="inlineStr"/>
-      <c r="AA44" t="inlineStr"/>
-      <c r="AB44" t="inlineStr"/>
-      <c r="AC44" t="inlineStr"/>
+      <c r="S44" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U44" t="n">
+        <v>10822926</v>
+      </c>
+      <c r="V44" t="n">
+        <v>7199</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>992</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>12.111</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>602</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -3696,17 +4466,39 @@
       <c r="R45" t="n">
         <v>800</v>
       </c>
-      <c r="S45" t="inlineStr"/>
-      <c r="T45" t="inlineStr"/>
-      <c r="U45" t="inlineStr"/>
-      <c r="V45" t="inlineStr"/>
-      <c r="W45" t="inlineStr"/>
-      <c r="X45" t="inlineStr"/>
-      <c r="Y45" t="inlineStr"/>
-      <c r="Z45" t="inlineStr"/>
-      <c r="AA45" t="inlineStr"/>
-      <c r="AB45" t="inlineStr"/>
-      <c r="AC45" t="inlineStr"/>
+      <c r="S45" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U45" t="n">
+        <v>10822926</v>
+      </c>
+      <c r="V45" t="n">
+        <v>7199</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0</v>
+      </c>
+      <c r="X45" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>992</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>12.111</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>602</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -3852,17 +4644,39 @@
       <c r="R47" t="n">
         <v>809</v>
       </c>
-      <c r="S47" t="inlineStr"/>
-      <c r="T47" t="inlineStr"/>
-      <c r="U47" t="inlineStr"/>
-      <c r="V47" t="inlineStr"/>
-      <c r="W47" t="inlineStr"/>
-      <c r="X47" t="inlineStr"/>
-      <c r="Y47" t="inlineStr"/>
-      <c r="Z47" t="inlineStr"/>
-      <c r="AA47" t="inlineStr"/>
-      <c r="AB47" t="inlineStr"/>
-      <c r="AC47" t="inlineStr"/>
+      <c r="S47" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T47" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U47" t="n">
+        <v>10823226</v>
+      </c>
+      <c r="V47" t="n">
+        <v>7198</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0</v>
+      </c>
+      <c r="X47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>993</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>12.123</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>585</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -3919,17 +4733,39 @@
       <c r="R48" t="n">
         <v>802</v>
       </c>
-      <c r="S48" t="inlineStr"/>
-      <c r="T48" t="inlineStr"/>
-      <c r="U48" t="inlineStr"/>
-      <c r="V48" t="inlineStr"/>
-      <c r="W48" t="inlineStr"/>
-      <c r="X48" t="inlineStr"/>
-      <c r="Y48" t="inlineStr"/>
-      <c r="Z48" t="inlineStr"/>
-      <c r="AA48" t="inlineStr"/>
-      <c r="AB48" t="inlineStr"/>
-      <c r="AC48" t="inlineStr"/>
+      <c r="S48" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T48" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U48" t="n">
+        <v>10823226</v>
+      </c>
+      <c r="V48" t="n">
+        <v>7198</v>
+      </c>
+      <c r="W48" t="n">
+        <v>0</v>
+      </c>
+      <c r="X48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>993</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>12.123</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>585</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -3986,17 +4822,39 @@
       <c r="R49" t="n">
         <v>802</v>
       </c>
-      <c r="S49" t="inlineStr"/>
-      <c r="T49" t="inlineStr"/>
-      <c r="U49" t="inlineStr"/>
-      <c r="V49" t="inlineStr"/>
-      <c r="W49" t="inlineStr"/>
-      <c r="X49" t="inlineStr"/>
-      <c r="Y49" t="inlineStr"/>
-      <c r="Z49" t="inlineStr"/>
-      <c r="AA49" t="inlineStr"/>
-      <c r="AB49" t="inlineStr"/>
-      <c r="AC49" t="inlineStr"/>
+      <c r="S49" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T49" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U49" t="n">
+        <v>10823226</v>
+      </c>
+      <c r="V49" t="n">
+        <v>7198</v>
+      </c>
+      <c r="W49" t="n">
+        <v>0</v>
+      </c>
+      <c r="X49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>993</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>12.123</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>585</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -4053,17 +4911,39 @@
       <c r="R50" t="n">
         <v>803</v>
       </c>
-      <c r="S50" t="inlineStr"/>
-      <c r="T50" t="inlineStr"/>
-      <c r="U50" t="inlineStr"/>
-      <c r="V50" t="inlineStr"/>
-      <c r="W50" t="inlineStr"/>
-      <c r="X50" t="inlineStr"/>
-      <c r="Y50" t="inlineStr"/>
-      <c r="Z50" t="inlineStr"/>
-      <c r="AA50" t="inlineStr"/>
-      <c r="AB50" t="inlineStr"/>
-      <c r="AC50" t="inlineStr"/>
+      <c r="S50" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T50" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U50" t="n">
+        <v>10823226</v>
+      </c>
+      <c r="V50" t="n">
+        <v>7198</v>
+      </c>
+      <c r="W50" t="n">
+        <v>0</v>
+      </c>
+      <c r="X50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>993</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>12.123</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>585</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -4209,17 +5089,39 @@
       <c r="R52" t="n">
         <v>801</v>
       </c>
-      <c r="S52" t="inlineStr"/>
-      <c r="T52" t="inlineStr"/>
-      <c r="U52" t="inlineStr"/>
-      <c r="V52" t="inlineStr"/>
-      <c r="W52" t="inlineStr"/>
-      <c r="X52" t="inlineStr"/>
-      <c r="Y52" t="inlineStr"/>
-      <c r="Z52" t="inlineStr"/>
-      <c r="AA52" t="inlineStr"/>
-      <c r="AB52" t="inlineStr"/>
-      <c r="AC52" t="inlineStr"/>
+      <c r="S52" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T52" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U52" t="n">
+        <v>10823527</v>
+      </c>
+      <c r="V52" t="n">
+        <v>7198</v>
+      </c>
+      <c r="W52" t="n">
+        <v>0</v>
+      </c>
+      <c r="X52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>993</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>12.123</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>587</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -4276,17 +5178,39 @@
       <c r="R53" t="n">
         <v>801</v>
       </c>
-      <c r="S53" t="inlineStr"/>
-      <c r="T53" t="inlineStr"/>
-      <c r="U53" t="inlineStr"/>
-      <c r="V53" t="inlineStr"/>
-      <c r="W53" t="inlineStr"/>
-      <c r="X53" t="inlineStr"/>
-      <c r="Y53" t="inlineStr"/>
-      <c r="Z53" t="inlineStr"/>
-      <c r="AA53" t="inlineStr"/>
-      <c r="AB53" t="inlineStr"/>
-      <c r="AC53" t="inlineStr"/>
+      <c r="S53" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T53" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U53" t="n">
+        <v>10823527</v>
+      </c>
+      <c r="V53" t="n">
+        <v>7198</v>
+      </c>
+      <c r="W53" t="n">
+        <v>0</v>
+      </c>
+      <c r="X53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>993</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>12.123</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>587</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -4343,17 +5267,39 @@
       <c r="R54" t="n">
         <v>802</v>
       </c>
-      <c r="S54" t="inlineStr"/>
-      <c r="T54" t="inlineStr"/>
-      <c r="U54" t="inlineStr"/>
-      <c r="V54" t="inlineStr"/>
-      <c r="W54" t="inlineStr"/>
-      <c r="X54" t="inlineStr"/>
-      <c r="Y54" t="inlineStr"/>
-      <c r="Z54" t="inlineStr"/>
-      <c r="AA54" t="inlineStr"/>
-      <c r="AB54" t="inlineStr"/>
-      <c r="AC54" t="inlineStr"/>
+      <c r="S54" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T54" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U54" t="n">
+        <v>10823527</v>
+      </c>
+      <c r="V54" t="n">
+        <v>7198</v>
+      </c>
+      <c r="W54" t="n">
+        <v>0</v>
+      </c>
+      <c r="X54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>993</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>12.123</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>587</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -4410,17 +5356,39 @@
       <c r="R55" t="n">
         <v>803</v>
       </c>
-      <c r="S55" t="inlineStr"/>
-      <c r="T55" t="inlineStr"/>
-      <c r="U55" t="inlineStr"/>
-      <c r="V55" t="inlineStr"/>
-      <c r="W55" t="inlineStr"/>
-      <c r="X55" t="inlineStr"/>
-      <c r="Y55" t="inlineStr"/>
-      <c r="Z55" t="inlineStr"/>
-      <c r="AA55" t="inlineStr"/>
-      <c r="AB55" t="inlineStr"/>
-      <c r="AC55" t="inlineStr"/>
+      <c r="S55" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T55" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U55" t="n">
+        <v>10823527</v>
+      </c>
+      <c r="V55" t="n">
+        <v>7198</v>
+      </c>
+      <c r="W55" t="n">
+        <v>0</v>
+      </c>
+      <c r="X55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>993</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>12.123</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>587</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -4566,17 +5534,39 @@
       <c r="R57" t="n">
         <v>801</v>
       </c>
-      <c r="S57" t="inlineStr"/>
-      <c r="T57" t="inlineStr"/>
-      <c r="U57" t="inlineStr"/>
-      <c r="V57" t="inlineStr"/>
-      <c r="W57" t="inlineStr"/>
-      <c r="X57" t="inlineStr"/>
-      <c r="Y57" t="inlineStr"/>
-      <c r="Z57" t="inlineStr"/>
-      <c r="AA57" t="inlineStr"/>
-      <c r="AB57" t="inlineStr"/>
-      <c r="AC57" t="inlineStr"/>
+      <c r="S57" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T57" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U57" t="n">
+        <v>10823827</v>
+      </c>
+      <c r="V57" t="n">
+        <v>7198</v>
+      </c>
+      <c r="W57" t="n">
+        <v>0</v>
+      </c>
+      <c r="X57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>993</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>12.123</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>608</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -4633,17 +5623,39 @@
       <c r="R58" t="n">
         <v>801</v>
       </c>
-      <c r="S58" t="inlineStr"/>
-      <c r="T58" t="inlineStr"/>
-      <c r="U58" t="inlineStr"/>
-      <c r="V58" t="inlineStr"/>
-      <c r="W58" t="inlineStr"/>
-      <c r="X58" t="inlineStr"/>
-      <c r="Y58" t="inlineStr"/>
-      <c r="Z58" t="inlineStr"/>
-      <c r="AA58" t="inlineStr"/>
-      <c r="AB58" t="inlineStr"/>
-      <c r="AC58" t="inlineStr"/>
+      <c r="S58" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T58" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U58" t="n">
+        <v>10823827</v>
+      </c>
+      <c r="V58" t="n">
+        <v>7198</v>
+      </c>
+      <c r="W58" t="n">
+        <v>0</v>
+      </c>
+      <c r="X58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>993</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>12.123</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>608</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -4700,17 +5712,39 @@
       <c r="R59" t="n">
         <v>802</v>
       </c>
-      <c r="S59" t="inlineStr"/>
-      <c r="T59" t="inlineStr"/>
-      <c r="U59" t="inlineStr"/>
-      <c r="V59" t="inlineStr"/>
-      <c r="W59" t="inlineStr"/>
-      <c r="X59" t="inlineStr"/>
-      <c r="Y59" t="inlineStr"/>
-      <c r="Z59" t="inlineStr"/>
-      <c r="AA59" t="inlineStr"/>
-      <c r="AB59" t="inlineStr"/>
-      <c r="AC59" t="inlineStr"/>
+      <c r="S59" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T59" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U59" t="n">
+        <v>10823827</v>
+      </c>
+      <c r="V59" t="n">
+        <v>7198</v>
+      </c>
+      <c r="W59" t="n">
+        <v>0</v>
+      </c>
+      <c r="X59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>993</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>12.123</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>608</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -4767,17 +5801,39 @@
       <c r="R60" t="n">
         <v>802</v>
       </c>
-      <c r="S60" t="inlineStr"/>
-      <c r="T60" t="inlineStr"/>
-      <c r="U60" t="inlineStr"/>
-      <c r="V60" t="inlineStr"/>
-      <c r="W60" t="inlineStr"/>
-      <c r="X60" t="inlineStr"/>
-      <c r="Y60" t="inlineStr"/>
-      <c r="Z60" t="inlineStr"/>
-      <c r="AA60" t="inlineStr"/>
-      <c r="AB60" t="inlineStr"/>
-      <c r="AC60" t="inlineStr"/>
+      <c r="S60" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T60" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U60" t="n">
+        <v>10823827</v>
+      </c>
+      <c r="V60" t="n">
+        <v>7198</v>
+      </c>
+      <c r="W60" t="n">
+        <v>0</v>
+      </c>
+      <c r="X60" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>993</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>12.123</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>608</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -4834,17 +5890,39 @@
       <c r="R61" t="n">
         <v>802</v>
       </c>
-      <c r="S61" t="inlineStr"/>
-      <c r="T61" t="inlineStr"/>
-      <c r="U61" t="inlineStr"/>
-      <c r="V61" t="inlineStr"/>
-      <c r="W61" t="inlineStr"/>
-      <c r="X61" t="inlineStr"/>
-      <c r="Y61" t="inlineStr"/>
-      <c r="Z61" t="inlineStr"/>
-      <c r="AA61" t="inlineStr"/>
-      <c r="AB61" t="inlineStr"/>
-      <c r="AC61" t="inlineStr"/>
+      <c r="S61" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T61" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U61" t="n">
+        <v>10823827</v>
+      </c>
+      <c r="V61" t="n">
+        <v>7198</v>
+      </c>
+      <c r="W61" t="n">
+        <v>0</v>
+      </c>
+      <c r="X61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>993</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>12.123</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>608</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -4901,17 +5979,39 @@
       <c r="R62" t="n">
         <v>802</v>
       </c>
-      <c r="S62" t="inlineStr"/>
-      <c r="T62" t="inlineStr"/>
-      <c r="U62" t="inlineStr"/>
-      <c r="V62" t="inlineStr"/>
-      <c r="W62" t="inlineStr"/>
-      <c r="X62" t="inlineStr"/>
-      <c r="Y62" t="inlineStr"/>
-      <c r="Z62" t="inlineStr"/>
-      <c r="AA62" t="inlineStr"/>
-      <c r="AB62" t="inlineStr"/>
-      <c r="AC62" t="inlineStr"/>
+      <c r="S62" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T62" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U62" t="n">
+        <v>10823827</v>
+      </c>
+      <c r="V62" t="n">
+        <v>7198</v>
+      </c>
+      <c r="W62" t="n">
+        <v>0</v>
+      </c>
+      <c r="X62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>993</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>12.123</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>608</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -4968,17 +6068,39 @@
       <c r="R63" t="n">
         <v>801</v>
       </c>
-      <c r="S63" t="inlineStr"/>
-      <c r="T63" t="inlineStr"/>
-      <c r="U63" t="inlineStr"/>
-      <c r="V63" t="inlineStr"/>
-      <c r="W63" t="inlineStr"/>
-      <c r="X63" t="inlineStr"/>
-      <c r="Y63" t="inlineStr"/>
-      <c r="Z63" t="inlineStr"/>
-      <c r="AA63" t="inlineStr"/>
-      <c r="AB63" t="inlineStr"/>
-      <c r="AC63" t="inlineStr"/>
+      <c r="S63" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T63" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U63" t="n">
+        <v>10823827</v>
+      </c>
+      <c r="V63" t="n">
+        <v>7198</v>
+      </c>
+      <c r="W63" t="n">
+        <v>0</v>
+      </c>
+      <c r="X63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>993</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>12.123</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>608</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -5035,17 +6157,39 @@
       <c r="R64" t="n">
         <v>802</v>
       </c>
-      <c r="S64" t="inlineStr"/>
-      <c r="T64" t="inlineStr"/>
-      <c r="U64" t="inlineStr"/>
-      <c r="V64" t="inlineStr"/>
-      <c r="W64" t="inlineStr"/>
-      <c r="X64" t="inlineStr"/>
-      <c r="Y64" t="inlineStr"/>
-      <c r="Z64" t="inlineStr"/>
-      <c r="AA64" t="inlineStr"/>
-      <c r="AB64" t="inlineStr"/>
-      <c r="AC64" t="inlineStr"/>
+      <c r="S64" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T64" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U64" t="n">
+        <v>10823827</v>
+      </c>
+      <c r="V64" t="n">
+        <v>7198</v>
+      </c>
+      <c r="W64" t="n">
+        <v>0</v>
+      </c>
+      <c r="X64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>993</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>12.123</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>608</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -5102,17 +6246,39 @@
       <c r="R65" t="n">
         <v>800</v>
       </c>
-      <c r="S65" t="inlineStr"/>
-      <c r="T65" t="inlineStr"/>
-      <c r="U65" t="inlineStr"/>
-      <c r="V65" t="inlineStr"/>
-      <c r="W65" t="inlineStr"/>
-      <c r="X65" t="inlineStr"/>
-      <c r="Y65" t="inlineStr"/>
-      <c r="Z65" t="inlineStr"/>
-      <c r="AA65" t="inlineStr"/>
-      <c r="AB65" t="inlineStr"/>
-      <c r="AC65" t="inlineStr"/>
+      <c r="S65" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T65" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U65" t="n">
+        <v>10823827</v>
+      </c>
+      <c r="V65" t="n">
+        <v>7198</v>
+      </c>
+      <c r="W65" t="n">
+        <v>0</v>
+      </c>
+      <c r="X65" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>993</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>12.123</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>608</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -5258,17 +6424,39 @@
       <c r="R67" t="n">
         <v>800</v>
       </c>
-      <c r="S67" t="inlineStr"/>
-      <c r="T67" t="inlineStr"/>
-      <c r="U67" t="inlineStr"/>
-      <c r="V67" t="inlineStr"/>
-      <c r="W67" t="inlineStr"/>
-      <c r="X67" t="inlineStr"/>
-      <c r="Y67" t="inlineStr"/>
-      <c r="Z67" t="inlineStr"/>
-      <c r="AA67" t="inlineStr"/>
-      <c r="AB67" t="inlineStr"/>
-      <c r="AC67" t="inlineStr"/>
+      <c r="S67" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T67" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U67" t="n">
+        <v>10824427</v>
+      </c>
+      <c r="V67" t="n">
+        <v>7196</v>
+      </c>
+      <c r="W67" t="n">
+        <v>0</v>
+      </c>
+      <c r="X67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>995</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>12.147</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>690</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -5325,17 +6513,39 @@
       <c r="R68" t="n">
         <v>800</v>
       </c>
-      <c r="S68" t="inlineStr"/>
-      <c r="T68" t="inlineStr"/>
-      <c r="U68" t="inlineStr"/>
-      <c r="V68" t="inlineStr"/>
-      <c r="W68" t="inlineStr"/>
-      <c r="X68" t="inlineStr"/>
-      <c r="Y68" t="inlineStr"/>
-      <c r="Z68" t="inlineStr"/>
-      <c r="AA68" t="inlineStr"/>
-      <c r="AB68" t="inlineStr"/>
-      <c r="AC68" t="inlineStr"/>
+      <c r="S68" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T68" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U68" t="n">
+        <v>10824427</v>
+      </c>
+      <c r="V68" t="n">
+        <v>7196</v>
+      </c>
+      <c r="W68" t="n">
+        <v>0</v>
+      </c>
+      <c r="X68" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>995</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>12.147</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC68" t="n">
+        <v>690</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -5392,17 +6602,39 @@
       <c r="R69" t="n">
         <v>801</v>
       </c>
-      <c r="S69" t="inlineStr"/>
-      <c r="T69" t="inlineStr"/>
-      <c r="U69" t="inlineStr"/>
-      <c r="V69" t="inlineStr"/>
-      <c r="W69" t="inlineStr"/>
-      <c r="X69" t="inlineStr"/>
-      <c r="Y69" t="inlineStr"/>
-      <c r="Z69" t="inlineStr"/>
-      <c r="AA69" t="inlineStr"/>
-      <c r="AB69" t="inlineStr"/>
-      <c r="AC69" t="inlineStr"/>
+      <c r="S69" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T69" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U69" t="n">
+        <v>10824427</v>
+      </c>
+      <c r="V69" t="n">
+        <v>7196</v>
+      </c>
+      <c r="W69" t="n">
+        <v>0</v>
+      </c>
+      <c r="X69" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>995</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>12.147</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC69" t="n">
+        <v>690</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -5459,17 +6691,39 @@
       <c r="R70" t="n">
         <v>801</v>
       </c>
-      <c r="S70" t="inlineStr"/>
-      <c r="T70" t="inlineStr"/>
-      <c r="U70" t="inlineStr"/>
-      <c r="V70" t="inlineStr"/>
-      <c r="W70" t="inlineStr"/>
-      <c r="X70" t="inlineStr"/>
-      <c r="Y70" t="inlineStr"/>
-      <c r="Z70" t="inlineStr"/>
-      <c r="AA70" t="inlineStr"/>
-      <c r="AB70" t="inlineStr"/>
-      <c r="AC70" t="inlineStr"/>
+      <c r="S70" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T70" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U70" t="n">
+        <v>10824427</v>
+      </c>
+      <c r="V70" t="n">
+        <v>7196</v>
+      </c>
+      <c r="W70" t="n">
+        <v>0</v>
+      </c>
+      <c r="X70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>995</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>12.147</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC70" t="n">
+        <v>690</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -5615,17 +6869,39 @@
       <c r="R72" t="n">
         <v>799</v>
       </c>
-      <c r="S72" t="inlineStr"/>
-      <c r="T72" t="inlineStr"/>
-      <c r="U72" t="inlineStr"/>
-      <c r="V72" t="inlineStr"/>
-      <c r="W72" t="inlineStr"/>
-      <c r="X72" t="inlineStr"/>
-      <c r="Y72" t="inlineStr"/>
-      <c r="Z72" t="inlineStr"/>
-      <c r="AA72" t="inlineStr"/>
-      <c r="AB72" t="inlineStr"/>
-      <c r="AC72" t="inlineStr"/>
+      <c r="S72" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T72" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U72" t="n">
+        <v>10824727</v>
+      </c>
+      <c r="V72" t="n">
+        <v>7194</v>
+      </c>
+      <c r="W72" t="n">
+        <v>0</v>
+      </c>
+      <c r="X72" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>997</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>12.172</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC72" t="n">
+        <v>686</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -5682,17 +6958,39 @@
       <c r="R73" t="n">
         <v>798</v>
       </c>
-      <c r="S73" t="inlineStr"/>
-      <c r="T73" t="inlineStr"/>
-      <c r="U73" t="inlineStr"/>
-      <c r="V73" t="inlineStr"/>
-      <c r="W73" t="inlineStr"/>
-      <c r="X73" t="inlineStr"/>
-      <c r="Y73" t="inlineStr"/>
-      <c r="Z73" t="inlineStr"/>
-      <c r="AA73" t="inlineStr"/>
-      <c r="AB73" t="inlineStr"/>
-      <c r="AC73" t="inlineStr"/>
+      <c r="S73" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T73" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U73" t="n">
+        <v>10824727</v>
+      </c>
+      <c r="V73" t="n">
+        <v>7194</v>
+      </c>
+      <c r="W73" t="n">
+        <v>0</v>
+      </c>
+      <c r="X73" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>997</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>12.172</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC73" t="n">
+        <v>686</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -5749,17 +7047,39 @@
       <c r="R74" t="n">
         <v>799</v>
       </c>
-      <c r="S74" t="inlineStr"/>
-      <c r="T74" t="inlineStr"/>
-      <c r="U74" t="inlineStr"/>
-      <c r="V74" t="inlineStr"/>
-      <c r="W74" t="inlineStr"/>
-      <c r="X74" t="inlineStr"/>
-      <c r="Y74" t="inlineStr"/>
-      <c r="Z74" t="inlineStr"/>
-      <c r="AA74" t="inlineStr"/>
-      <c r="AB74" t="inlineStr"/>
-      <c r="AC74" t="inlineStr"/>
+      <c r="S74" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T74" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U74" t="n">
+        <v>10824727</v>
+      </c>
+      <c r="V74" t="n">
+        <v>7194</v>
+      </c>
+      <c r="W74" t="n">
+        <v>0</v>
+      </c>
+      <c r="X74" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>997</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>12.172</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC74" t="n">
+        <v>686</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -5816,17 +7136,39 @@
       <c r="R75" t="n">
         <v>800</v>
       </c>
-      <c r="S75" t="inlineStr"/>
-      <c r="T75" t="inlineStr"/>
-      <c r="U75" t="inlineStr"/>
-      <c r="V75" t="inlineStr"/>
-      <c r="W75" t="inlineStr"/>
-      <c r="X75" t="inlineStr"/>
-      <c r="Y75" t="inlineStr"/>
-      <c r="Z75" t="inlineStr"/>
-      <c r="AA75" t="inlineStr"/>
-      <c r="AB75" t="inlineStr"/>
-      <c r="AC75" t="inlineStr"/>
+      <c r="S75" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T75" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U75" t="n">
+        <v>10824727</v>
+      </c>
+      <c r="V75" t="n">
+        <v>7194</v>
+      </c>
+      <c r="W75" t="n">
+        <v>0</v>
+      </c>
+      <c r="X75" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>997</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>12.172</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC75" t="n">
+        <v>686</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -5972,17 +7314,39 @@
       <c r="R77" t="n">
         <v>799</v>
       </c>
-      <c r="S77" t="inlineStr"/>
-      <c r="T77" t="inlineStr"/>
-      <c r="U77" t="inlineStr"/>
-      <c r="V77" t="inlineStr"/>
-      <c r="W77" t="inlineStr"/>
-      <c r="X77" t="inlineStr"/>
-      <c r="Y77" t="inlineStr"/>
-      <c r="Z77" t="inlineStr"/>
-      <c r="AA77" t="inlineStr"/>
-      <c r="AB77" t="inlineStr"/>
-      <c r="AC77" t="inlineStr"/>
+      <c r="S77" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T77" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U77" t="n">
+        <v>10825026</v>
+      </c>
+      <c r="V77" t="n">
+        <v>7194</v>
+      </c>
+      <c r="W77" t="n">
+        <v>0</v>
+      </c>
+      <c r="X77" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>997</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>12.172</v>
+      </c>
+      <c r="AA77" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC77" t="n">
+        <v>648</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -6039,17 +7403,39 @@
       <c r="R78" t="n">
         <v>798</v>
       </c>
-      <c r="S78" t="inlineStr"/>
-      <c r="T78" t="inlineStr"/>
-      <c r="U78" t="inlineStr"/>
-      <c r="V78" t="inlineStr"/>
-      <c r="W78" t="inlineStr"/>
-      <c r="X78" t="inlineStr"/>
-      <c r="Y78" t="inlineStr"/>
-      <c r="Z78" t="inlineStr"/>
-      <c r="AA78" t="inlineStr"/>
-      <c r="AB78" t="inlineStr"/>
-      <c r="AC78" t="inlineStr"/>
+      <c r="S78" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T78" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U78" t="n">
+        <v>10825026</v>
+      </c>
+      <c r="V78" t="n">
+        <v>7194</v>
+      </c>
+      <c r="W78" t="n">
+        <v>0</v>
+      </c>
+      <c r="X78" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>997</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>12.172</v>
+      </c>
+      <c r="AA78" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC78" t="n">
+        <v>648</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -6106,17 +7492,39 @@
       <c r="R79" t="n">
         <v>799</v>
       </c>
-      <c r="S79" t="inlineStr"/>
-      <c r="T79" t="inlineStr"/>
-      <c r="U79" t="inlineStr"/>
-      <c r="V79" t="inlineStr"/>
-      <c r="W79" t="inlineStr"/>
-      <c r="X79" t="inlineStr"/>
-      <c r="Y79" t="inlineStr"/>
-      <c r="Z79" t="inlineStr"/>
-      <c r="AA79" t="inlineStr"/>
-      <c r="AB79" t="inlineStr"/>
-      <c r="AC79" t="inlineStr"/>
+      <c r="S79" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T79" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U79" t="n">
+        <v>10825026</v>
+      </c>
+      <c r="V79" t="n">
+        <v>7194</v>
+      </c>
+      <c r="W79" t="n">
+        <v>0</v>
+      </c>
+      <c r="X79" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>997</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>12.172</v>
+      </c>
+      <c r="AA79" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC79" t="n">
+        <v>648</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -6173,17 +7581,39 @@
       <c r="R80" t="n">
         <v>799</v>
       </c>
-      <c r="S80" t="inlineStr"/>
-      <c r="T80" t="inlineStr"/>
-      <c r="U80" t="inlineStr"/>
-      <c r="V80" t="inlineStr"/>
-      <c r="W80" t="inlineStr"/>
-      <c r="X80" t="inlineStr"/>
-      <c r="Y80" t="inlineStr"/>
-      <c r="Z80" t="inlineStr"/>
-      <c r="AA80" t="inlineStr"/>
-      <c r="AB80" t="inlineStr"/>
-      <c r="AC80" t="inlineStr"/>
+      <c r="S80" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T80" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U80" t="n">
+        <v>10825026</v>
+      </c>
+      <c r="V80" t="n">
+        <v>7194</v>
+      </c>
+      <c r="W80" t="n">
+        <v>0</v>
+      </c>
+      <c r="X80" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>997</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>12.172</v>
+      </c>
+      <c r="AA80" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC80" t="n">
+        <v>648</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -6329,17 +7759,39 @@
       <c r="R82" t="n">
         <v>797</v>
       </c>
-      <c r="S82" t="inlineStr"/>
-      <c r="T82" t="inlineStr"/>
-      <c r="U82" t="inlineStr"/>
-      <c r="V82" t="inlineStr"/>
-      <c r="W82" t="inlineStr"/>
-      <c r="X82" t="inlineStr"/>
-      <c r="Y82" t="inlineStr"/>
-      <c r="Z82" t="inlineStr"/>
-      <c r="AA82" t="inlineStr"/>
-      <c r="AB82" t="inlineStr"/>
-      <c r="AC82" t="inlineStr"/>
+      <c r="S82" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T82" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U82" t="n">
+        <v>10825326</v>
+      </c>
+      <c r="V82" t="n">
+        <v>7194</v>
+      </c>
+      <c r="W82" t="n">
+        <v>0</v>
+      </c>
+      <c r="X82" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>997</v>
+      </c>
+      <c r="Z82" t="n">
+        <v>12.172</v>
+      </c>
+      <c r="AA82" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC82" t="n">
+        <v>705</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -6396,17 +7848,39 @@
       <c r="R83" t="n">
         <v>798</v>
       </c>
-      <c r="S83" t="inlineStr"/>
-      <c r="T83" t="inlineStr"/>
-      <c r="U83" t="inlineStr"/>
-      <c r="V83" t="inlineStr"/>
-      <c r="W83" t="inlineStr"/>
-      <c r="X83" t="inlineStr"/>
-      <c r="Y83" t="inlineStr"/>
-      <c r="Z83" t="inlineStr"/>
-      <c r="AA83" t="inlineStr"/>
-      <c r="AB83" t="inlineStr"/>
-      <c r="AC83" t="inlineStr"/>
+      <c r="S83" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T83" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U83" t="n">
+        <v>10825326</v>
+      </c>
+      <c r="V83" t="n">
+        <v>7194</v>
+      </c>
+      <c r="W83" t="n">
+        <v>0</v>
+      </c>
+      <c r="X83" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>997</v>
+      </c>
+      <c r="Z83" t="n">
+        <v>12.172</v>
+      </c>
+      <c r="AA83" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC83" t="n">
+        <v>705</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -6463,17 +7937,39 @@
       <c r="R84" t="n">
         <v>798</v>
       </c>
-      <c r="S84" t="inlineStr"/>
-      <c r="T84" t="inlineStr"/>
-      <c r="U84" t="inlineStr"/>
-      <c r="V84" t="inlineStr"/>
-      <c r="W84" t="inlineStr"/>
-      <c r="X84" t="inlineStr"/>
-      <c r="Y84" t="inlineStr"/>
-      <c r="Z84" t="inlineStr"/>
-      <c r="AA84" t="inlineStr"/>
-      <c r="AB84" t="inlineStr"/>
-      <c r="AC84" t="inlineStr"/>
+      <c r="S84" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T84" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U84" t="n">
+        <v>10825326</v>
+      </c>
+      <c r="V84" t="n">
+        <v>7194</v>
+      </c>
+      <c r="W84" t="n">
+        <v>0</v>
+      </c>
+      <c r="X84" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>997</v>
+      </c>
+      <c r="Z84" t="n">
+        <v>12.172</v>
+      </c>
+      <c r="AA84" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC84" t="n">
+        <v>705</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
@@ -6530,17 +8026,39 @@
       <c r="R85" t="n">
         <v>798</v>
       </c>
-      <c r="S85" t="inlineStr"/>
-      <c r="T85" t="inlineStr"/>
-      <c r="U85" t="inlineStr"/>
-      <c r="V85" t="inlineStr"/>
-      <c r="W85" t="inlineStr"/>
-      <c r="X85" t="inlineStr"/>
-      <c r="Y85" t="inlineStr"/>
-      <c r="Z85" t="inlineStr"/>
-      <c r="AA85" t="inlineStr"/>
-      <c r="AB85" t="inlineStr"/>
-      <c r="AC85" t="inlineStr"/>
+      <c r="S85" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T85" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U85" t="n">
+        <v>10825326</v>
+      </c>
+      <c r="V85" t="n">
+        <v>7194</v>
+      </c>
+      <c r="W85" t="n">
+        <v>0</v>
+      </c>
+      <c r="X85" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>997</v>
+      </c>
+      <c r="Z85" t="n">
+        <v>12.172</v>
+      </c>
+      <c r="AA85" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC85" t="n">
+        <v>705</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
@@ -6686,17 +8204,39 @@
       <c r="R87" t="n">
         <v>798</v>
       </c>
-      <c r="S87" t="inlineStr"/>
-      <c r="T87" t="inlineStr"/>
-      <c r="U87" t="inlineStr"/>
-      <c r="V87" t="inlineStr"/>
-      <c r="W87" t="inlineStr"/>
-      <c r="X87" t="inlineStr"/>
-      <c r="Y87" t="inlineStr"/>
-      <c r="Z87" t="inlineStr"/>
-      <c r="AA87" t="inlineStr"/>
-      <c r="AB87" t="inlineStr"/>
-      <c r="AC87" t="inlineStr"/>
+      <c r="S87" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T87" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U87" t="n">
+        <v>10825626</v>
+      </c>
+      <c r="V87" t="n">
+        <v>7193</v>
+      </c>
+      <c r="W87" t="n">
+        <v>0</v>
+      </c>
+      <c r="X87" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>998</v>
+      </c>
+      <c r="Z87" t="n">
+        <v>12.184</v>
+      </c>
+      <c r="AA87" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC87" t="n">
+        <v>710</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
@@ -6753,17 +8293,39 @@
       <c r="R88" t="n">
         <v>797</v>
       </c>
-      <c r="S88" t="inlineStr"/>
-      <c r="T88" t="inlineStr"/>
-      <c r="U88" t="inlineStr"/>
-      <c r="V88" t="inlineStr"/>
-      <c r="W88" t="inlineStr"/>
-      <c r="X88" t="inlineStr"/>
-      <c r="Y88" t="inlineStr"/>
-      <c r="Z88" t="inlineStr"/>
-      <c r="AA88" t="inlineStr"/>
-      <c r="AB88" t="inlineStr"/>
-      <c r="AC88" t="inlineStr"/>
+      <c r="S88" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T88" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U88" t="n">
+        <v>10825626</v>
+      </c>
+      <c r="V88" t="n">
+        <v>7193</v>
+      </c>
+      <c r="W88" t="n">
+        <v>0</v>
+      </c>
+      <c r="X88" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y88" t="n">
+        <v>998</v>
+      </c>
+      <c r="Z88" t="n">
+        <v>12.184</v>
+      </c>
+      <c r="AA88" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC88" t="n">
+        <v>710</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
@@ -6820,17 +8382,39 @@
       <c r="R89" t="n">
         <v>798</v>
       </c>
-      <c r="S89" t="inlineStr"/>
-      <c r="T89" t="inlineStr"/>
-      <c r="U89" t="inlineStr"/>
-      <c r="V89" t="inlineStr"/>
-      <c r="W89" t="inlineStr"/>
-      <c r="X89" t="inlineStr"/>
-      <c r="Y89" t="inlineStr"/>
-      <c r="Z89" t="inlineStr"/>
-      <c r="AA89" t="inlineStr"/>
-      <c r="AB89" t="inlineStr"/>
-      <c r="AC89" t="inlineStr"/>
+      <c r="S89" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T89" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U89" t="n">
+        <v>10825626</v>
+      </c>
+      <c r="V89" t="n">
+        <v>7193</v>
+      </c>
+      <c r="W89" t="n">
+        <v>0</v>
+      </c>
+      <c r="X89" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y89" t="n">
+        <v>998</v>
+      </c>
+      <c r="Z89" t="n">
+        <v>12.184</v>
+      </c>
+      <c r="AA89" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC89" t="n">
+        <v>710</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
@@ -6887,17 +8471,39 @@
       <c r="R90" t="n">
         <v>799</v>
       </c>
-      <c r="S90" t="inlineStr"/>
-      <c r="T90" t="inlineStr"/>
-      <c r="U90" t="inlineStr"/>
-      <c r="V90" t="inlineStr"/>
-      <c r="W90" t="inlineStr"/>
-      <c r="X90" t="inlineStr"/>
-      <c r="Y90" t="inlineStr"/>
-      <c r="Z90" t="inlineStr"/>
-      <c r="AA90" t="inlineStr"/>
-      <c r="AB90" t="inlineStr"/>
-      <c r="AC90" t="inlineStr"/>
+      <c r="S90" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T90" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U90" t="n">
+        <v>10825626</v>
+      </c>
+      <c r="V90" t="n">
+        <v>7193</v>
+      </c>
+      <c r="W90" t="n">
+        <v>0</v>
+      </c>
+      <c r="X90" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y90" t="n">
+        <v>998</v>
+      </c>
+      <c r="Z90" t="n">
+        <v>12.184</v>
+      </c>
+      <c r="AA90" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC90" t="n">
+        <v>710</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
@@ -7043,17 +8649,39 @@
       <c r="R92" t="n">
         <v>799</v>
       </c>
-      <c r="S92" t="inlineStr"/>
-      <c r="T92" t="inlineStr"/>
-      <c r="U92" t="inlineStr"/>
-      <c r="V92" t="inlineStr"/>
-      <c r="W92" t="inlineStr"/>
-      <c r="X92" t="inlineStr"/>
-      <c r="Y92" t="inlineStr"/>
-      <c r="Z92" t="inlineStr"/>
-      <c r="AA92" t="inlineStr"/>
-      <c r="AB92" t="inlineStr"/>
-      <c r="AC92" t="inlineStr"/>
+      <c r="S92" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T92" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U92" t="n">
+        <v>10825926</v>
+      </c>
+      <c r="V92" t="n">
+        <v>7194</v>
+      </c>
+      <c r="W92" t="n">
+        <v>4</v>
+      </c>
+      <c r="X92" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y92" t="n">
+        <v>997</v>
+      </c>
+      <c r="Z92" t="n">
+        <v>12.172</v>
+      </c>
+      <c r="AA92" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC92" t="n">
+        <v>683</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
@@ -7110,17 +8738,39 @@
       <c r="R93" t="n">
         <v>799</v>
       </c>
-      <c r="S93" t="inlineStr"/>
-      <c r="T93" t="inlineStr"/>
-      <c r="U93" t="inlineStr"/>
-      <c r="V93" t="inlineStr"/>
-      <c r="W93" t="inlineStr"/>
-      <c r="X93" t="inlineStr"/>
-      <c r="Y93" t="inlineStr"/>
-      <c r="Z93" t="inlineStr"/>
-      <c r="AA93" t="inlineStr"/>
-      <c r="AB93" t="inlineStr"/>
-      <c r="AC93" t="inlineStr"/>
+      <c r="S93" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T93" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U93" t="n">
+        <v>10825926</v>
+      </c>
+      <c r="V93" t="n">
+        <v>7194</v>
+      </c>
+      <c r="W93" t="n">
+        <v>4</v>
+      </c>
+      <c r="X93" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y93" t="n">
+        <v>997</v>
+      </c>
+      <c r="Z93" t="n">
+        <v>12.172</v>
+      </c>
+      <c r="AA93" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC93" t="n">
+        <v>683</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
@@ -7177,17 +8827,39 @@
       <c r="R94" t="n">
         <v>799</v>
       </c>
-      <c r="S94" t="inlineStr"/>
-      <c r="T94" t="inlineStr"/>
-      <c r="U94" t="inlineStr"/>
-      <c r="V94" t="inlineStr"/>
-      <c r="W94" t="inlineStr"/>
-      <c r="X94" t="inlineStr"/>
-      <c r="Y94" t="inlineStr"/>
-      <c r="Z94" t="inlineStr"/>
-      <c r="AA94" t="inlineStr"/>
-      <c r="AB94" t="inlineStr"/>
-      <c r="AC94" t="inlineStr"/>
+      <c r="S94" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T94" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U94" t="n">
+        <v>10825926</v>
+      </c>
+      <c r="V94" t="n">
+        <v>7194</v>
+      </c>
+      <c r="W94" t="n">
+        <v>4</v>
+      </c>
+      <c r="X94" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y94" t="n">
+        <v>997</v>
+      </c>
+      <c r="Z94" t="n">
+        <v>12.172</v>
+      </c>
+      <c r="AA94" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC94" t="n">
+        <v>683</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
@@ -7244,17 +8916,39 @@
       <c r="R95" t="n">
         <v>800</v>
       </c>
-      <c r="S95" t="inlineStr"/>
-      <c r="T95" t="inlineStr"/>
-      <c r="U95" t="inlineStr"/>
-      <c r="V95" t="inlineStr"/>
-      <c r="W95" t="inlineStr"/>
-      <c r="X95" t="inlineStr"/>
-      <c r="Y95" t="inlineStr"/>
-      <c r="Z95" t="inlineStr"/>
-      <c r="AA95" t="inlineStr"/>
-      <c r="AB95" t="inlineStr"/>
-      <c r="AC95" t="inlineStr"/>
+      <c r="S95" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T95" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U95" t="n">
+        <v>10825926</v>
+      </c>
+      <c r="V95" t="n">
+        <v>7194</v>
+      </c>
+      <c r="W95" t="n">
+        <v>4</v>
+      </c>
+      <c r="X95" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y95" t="n">
+        <v>997</v>
+      </c>
+      <c r="Z95" t="n">
+        <v>12.172</v>
+      </c>
+      <c r="AA95" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC95" t="n">
+        <v>683</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
@@ -7400,17 +9094,39 @@
       <c r="R97" t="n">
         <v>798</v>
       </c>
-      <c r="S97" t="inlineStr"/>
-      <c r="T97" t="inlineStr"/>
-      <c r="U97" t="inlineStr"/>
-      <c r="V97" t="inlineStr"/>
-      <c r="W97" t="inlineStr"/>
-      <c r="X97" t="inlineStr"/>
-      <c r="Y97" t="inlineStr"/>
-      <c r="Z97" t="inlineStr"/>
-      <c r="AA97" t="inlineStr"/>
-      <c r="AB97" t="inlineStr"/>
-      <c r="AC97" t="inlineStr"/>
+      <c r="S97" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T97" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U97" t="n">
+        <v>10826226</v>
+      </c>
+      <c r="V97" t="n">
+        <v>7194</v>
+      </c>
+      <c r="W97" t="n">
+        <v>0</v>
+      </c>
+      <c r="X97" t="n">
+        <v>88</v>
+      </c>
+      <c r="Y97" t="n">
+        <v>997</v>
+      </c>
+      <c r="Z97" t="n">
+        <v>12.172</v>
+      </c>
+      <c r="AA97" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC97" t="n">
+        <v>685</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
@@ -7467,17 +9183,39 @@
       <c r="R98" t="n">
         <v>798</v>
       </c>
-      <c r="S98" t="inlineStr"/>
-      <c r="T98" t="inlineStr"/>
-      <c r="U98" t="inlineStr"/>
-      <c r="V98" t="inlineStr"/>
-      <c r="W98" t="inlineStr"/>
-      <c r="X98" t="inlineStr"/>
-      <c r="Y98" t="inlineStr"/>
-      <c r="Z98" t="inlineStr"/>
-      <c r="AA98" t="inlineStr"/>
-      <c r="AB98" t="inlineStr"/>
-      <c r="AC98" t="inlineStr"/>
+      <c r="S98" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T98" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U98" t="n">
+        <v>10826226</v>
+      </c>
+      <c r="V98" t="n">
+        <v>7194</v>
+      </c>
+      <c r="W98" t="n">
+        <v>0</v>
+      </c>
+      <c r="X98" t="n">
+        <v>88</v>
+      </c>
+      <c r="Y98" t="n">
+        <v>997</v>
+      </c>
+      <c r="Z98" t="n">
+        <v>12.172</v>
+      </c>
+      <c r="AA98" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC98" t="n">
+        <v>685</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
@@ -7534,17 +9272,39 @@
       <c r="R99" t="n">
         <v>799</v>
       </c>
-      <c r="S99" t="inlineStr"/>
-      <c r="T99" t="inlineStr"/>
-      <c r="U99" t="inlineStr"/>
-      <c r="V99" t="inlineStr"/>
-      <c r="W99" t="inlineStr"/>
-      <c r="X99" t="inlineStr"/>
-      <c r="Y99" t="inlineStr"/>
-      <c r="Z99" t="inlineStr"/>
-      <c r="AA99" t="inlineStr"/>
-      <c r="AB99" t="inlineStr"/>
-      <c r="AC99" t="inlineStr"/>
+      <c r="S99" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T99" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U99" t="n">
+        <v>10826226</v>
+      </c>
+      <c r="V99" t="n">
+        <v>7194</v>
+      </c>
+      <c r="W99" t="n">
+        <v>0</v>
+      </c>
+      <c r="X99" t="n">
+        <v>88</v>
+      </c>
+      <c r="Y99" t="n">
+        <v>997</v>
+      </c>
+      <c r="Z99" t="n">
+        <v>12.172</v>
+      </c>
+      <c r="AA99" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB99" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC99" t="n">
+        <v>685</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
@@ -7601,17 +9361,39 @@
       <c r="R100" t="n">
         <v>798</v>
       </c>
-      <c r="S100" t="inlineStr"/>
-      <c r="T100" t="inlineStr"/>
-      <c r="U100" t="inlineStr"/>
-      <c r="V100" t="inlineStr"/>
-      <c r="W100" t="inlineStr"/>
-      <c r="X100" t="inlineStr"/>
-      <c r="Y100" t="inlineStr"/>
-      <c r="Z100" t="inlineStr"/>
-      <c r="AA100" t="inlineStr"/>
-      <c r="AB100" t="inlineStr"/>
-      <c r="AC100" t="inlineStr"/>
+      <c r="S100" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T100" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U100" t="n">
+        <v>10826226</v>
+      </c>
+      <c r="V100" t="n">
+        <v>7194</v>
+      </c>
+      <c r="W100" t="n">
+        <v>0</v>
+      </c>
+      <c r="X100" t="n">
+        <v>88</v>
+      </c>
+      <c r="Y100" t="n">
+        <v>997</v>
+      </c>
+      <c r="Z100" t="n">
+        <v>12.172</v>
+      </c>
+      <c r="AA100" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC100" t="n">
+        <v>685</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
@@ -7757,17 +9539,39 @@
       <c r="R102" t="n">
         <v>800</v>
       </c>
-      <c r="S102" t="inlineStr"/>
-      <c r="T102" t="inlineStr"/>
-      <c r="U102" t="inlineStr"/>
-      <c r="V102" t="inlineStr"/>
-      <c r="W102" t="inlineStr"/>
-      <c r="X102" t="inlineStr"/>
-      <c r="Y102" t="inlineStr"/>
-      <c r="Z102" t="inlineStr"/>
-      <c r="AA102" t="inlineStr"/>
-      <c r="AB102" t="inlineStr"/>
-      <c r="AC102" t="inlineStr"/>
+      <c r="S102" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T102" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U102" t="n">
+        <v>10826526</v>
+      </c>
+      <c r="V102" t="n">
+        <v>7193</v>
+      </c>
+      <c r="W102" t="n">
+        <v>0</v>
+      </c>
+      <c r="X102" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y102" t="n">
+        <v>998</v>
+      </c>
+      <c r="Z102" t="n">
+        <v>12.184</v>
+      </c>
+      <c r="AA102" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB102" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC102" t="n">
+        <v>723</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
@@ -7824,17 +9628,39 @@
       <c r="R103" t="n">
         <v>800</v>
       </c>
-      <c r="S103" t="inlineStr"/>
-      <c r="T103" t="inlineStr"/>
-      <c r="U103" t="inlineStr"/>
-      <c r="V103" t="inlineStr"/>
-      <c r="W103" t="inlineStr"/>
-      <c r="X103" t="inlineStr"/>
-      <c r="Y103" t="inlineStr"/>
-      <c r="Z103" t="inlineStr"/>
-      <c r="AA103" t="inlineStr"/>
-      <c r="AB103" t="inlineStr"/>
-      <c r="AC103" t="inlineStr"/>
+      <c r="S103" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T103" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U103" t="n">
+        <v>10826526</v>
+      </c>
+      <c r="V103" t="n">
+        <v>7193</v>
+      </c>
+      <c r="W103" t="n">
+        <v>0</v>
+      </c>
+      <c r="X103" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y103" t="n">
+        <v>998</v>
+      </c>
+      <c r="Z103" t="n">
+        <v>12.184</v>
+      </c>
+      <c r="AA103" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB103" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC103" t="n">
+        <v>723</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
@@ -7891,17 +9717,39 @@
       <c r="R104" t="n">
         <v>801</v>
       </c>
-      <c r="S104" t="inlineStr"/>
-      <c r="T104" t="inlineStr"/>
-      <c r="U104" t="inlineStr"/>
-      <c r="V104" t="inlineStr"/>
-      <c r="W104" t="inlineStr"/>
-      <c r="X104" t="inlineStr"/>
-      <c r="Y104" t="inlineStr"/>
-      <c r="Z104" t="inlineStr"/>
-      <c r="AA104" t="inlineStr"/>
-      <c r="AB104" t="inlineStr"/>
-      <c r="AC104" t="inlineStr"/>
+      <c r="S104" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T104" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U104" t="n">
+        <v>10826526</v>
+      </c>
+      <c r="V104" t="n">
+        <v>7193</v>
+      </c>
+      <c r="W104" t="n">
+        <v>0</v>
+      </c>
+      <c r="X104" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y104" t="n">
+        <v>998</v>
+      </c>
+      <c r="Z104" t="n">
+        <v>12.184</v>
+      </c>
+      <c r="AA104" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB104" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC104" t="n">
+        <v>723</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
@@ -7958,17 +9806,39 @@
       <c r="R105" t="n">
         <v>800</v>
       </c>
-      <c r="S105" t="inlineStr"/>
-      <c r="T105" t="inlineStr"/>
-      <c r="U105" t="inlineStr"/>
-      <c r="V105" t="inlineStr"/>
-      <c r="W105" t="inlineStr"/>
-      <c r="X105" t="inlineStr"/>
-      <c r="Y105" t="inlineStr"/>
-      <c r="Z105" t="inlineStr"/>
-      <c r="AA105" t="inlineStr"/>
-      <c r="AB105" t="inlineStr"/>
-      <c r="AC105" t="inlineStr"/>
+      <c r="S105" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T105" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U105" t="n">
+        <v>10826526</v>
+      </c>
+      <c r="V105" t="n">
+        <v>7193</v>
+      </c>
+      <c r="W105" t="n">
+        <v>0</v>
+      </c>
+      <c r="X105" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y105" t="n">
+        <v>998</v>
+      </c>
+      <c r="Z105" t="n">
+        <v>12.184</v>
+      </c>
+      <c r="AA105" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB105" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC105" t="n">
+        <v>723</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
@@ -8114,17 +9984,39 @@
       <c r="R107" t="n">
         <v>801</v>
       </c>
-      <c r="S107" t="inlineStr"/>
-      <c r="T107" t="inlineStr"/>
-      <c r="U107" t="inlineStr"/>
-      <c r="V107" t="inlineStr"/>
-      <c r="W107" t="inlineStr"/>
-      <c r="X107" t="inlineStr"/>
-      <c r="Y107" t="inlineStr"/>
-      <c r="Z107" t="inlineStr"/>
-      <c r="AA107" t="inlineStr"/>
-      <c r="AB107" t="inlineStr"/>
-      <c r="AC107" t="inlineStr"/>
+      <c r="S107" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T107" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U107" t="n">
+        <v>10826826</v>
+      </c>
+      <c r="V107" t="n">
+        <v>7194</v>
+      </c>
+      <c r="W107" t="n">
+        <v>0</v>
+      </c>
+      <c r="X107" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y107" t="n">
+        <v>997</v>
+      </c>
+      <c r="Z107" t="n">
+        <v>12.172</v>
+      </c>
+      <c r="AA107" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC107" t="n">
+        <v>671</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
@@ -8181,17 +10073,39 @@
       <c r="R108" t="n">
         <v>801</v>
       </c>
-      <c r="S108" t="inlineStr"/>
-      <c r="T108" t="inlineStr"/>
-      <c r="U108" t="inlineStr"/>
-      <c r="V108" t="inlineStr"/>
-      <c r="W108" t="inlineStr"/>
-      <c r="X108" t="inlineStr"/>
-      <c r="Y108" t="inlineStr"/>
-      <c r="Z108" t="inlineStr"/>
-      <c r="AA108" t="inlineStr"/>
-      <c r="AB108" t="inlineStr"/>
-      <c r="AC108" t="inlineStr"/>
+      <c r="S108" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T108" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U108" t="n">
+        <v>10826826</v>
+      </c>
+      <c r="V108" t="n">
+        <v>7194</v>
+      </c>
+      <c r="W108" t="n">
+        <v>0</v>
+      </c>
+      <c r="X108" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y108" t="n">
+        <v>997</v>
+      </c>
+      <c r="Z108" t="n">
+        <v>12.172</v>
+      </c>
+      <c r="AA108" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC108" t="n">
+        <v>671</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
@@ -8248,17 +10162,39 @@
       <c r="R109" t="n">
         <v>800</v>
       </c>
-      <c r="S109" t="inlineStr"/>
-      <c r="T109" t="inlineStr"/>
-      <c r="U109" t="inlineStr"/>
-      <c r="V109" t="inlineStr"/>
-      <c r="W109" t="inlineStr"/>
-      <c r="X109" t="inlineStr"/>
-      <c r="Y109" t="inlineStr"/>
-      <c r="Z109" t="inlineStr"/>
-      <c r="AA109" t="inlineStr"/>
-      <c r="AB109" t="inlineStr"/>
-      <c r="AC109" t="inlineStr"/>
+      <c r="S109" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T109" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U109" t="n">
+        <v>10826826</v>
+      </c>
+      <c r="V109" t="n">
+        <v>7194</v>
+      </c>
+      <c r="W109" t="n">
+        <v>0</v>
+      </c>
+      <c r="X109" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y109" t="n">
+        <v>997</v>
+      </c>
+      <c r="Z109" t="n">
+        <v>12.172</v>
+      </c>
+      <c r="AA109" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC109" t="n">
+        <v>671</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
@@ -8315,17 +10251,39 @@
       <c r="R110" t="n">
         <v>800</v>
       </c>
-      <c r="S110" t="inlineStr"/>
-      <c r="T110" t="inlineStr"/>
-      <c r="U110" t="inlineStr"/>
-      <c r="V110" t="inlineStr"/>
-      <c r="W110" t="inlineStr"/>
-      <c r="X110" t="inlineStr"/>
-      <c r="Y110" t="inlineStr"/>
-      <c r="Z110" t="inlineStr"/>
-      <c r="AA110" t="inlineStr"/>
-      <c r="AB110" t="inlineStr"/>
-      <c r="AC110" t="inlineStr"/>
+      <c r="S110" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T110" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U110" t="n">
+        <v>10826826</v>
+      </c>
+      <c r="V110" t="n">
+        <v>7194</v>
+      </c>
+      <c r="W110" t="n">
+        <v>0</v>
+      </c>
+      <c r="X110" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y110" t="n">
+        <v>997</v>
+      </c>
+      <c r="Z110" t="n">
+        <v>12.172</v>
+      </c>
+      <c r="AA110" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC110" t="n">
+        <v>671</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
@@ -8471,17 +10429,39 @@
       <c r="R112" t="n">
         <v>798</v>
       </c>
-      <c r="S112" t="inlineStr"/>
-      <c r="T112" t="inlineStr"/>
-      <c r="U112" t="inlineStr"/>
-      <c r="V112" t="inlineStr"/>
-      <c r="W112" t="inlineStr"/>
-      <c r="X112" t="inlineStr"/>
-      <c r="Y112" t="inlineStr"/>
-      <c r="Z112" t="inlineStr"/>
-      <c r="AA112" t="inlineStr"/>
-      <c r="AB112" t="inlineStr"/>
-      <c r="AC112" t="inlineStr"/>
+      <c r="S112" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T112" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U112" t="n">
+        <v>10827127</v>
+      </c>
+      <c r="V112" t="n">
+        <v>7193</v>
+      </c>
+      <c r="W112" t="n">
+        <v>0</v>
+      </c>
+      <c r="X112" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y112" t="n">
+        <v>998</v>
+      </c>
+      <c r="Z112" t="n">
+        <v>12.184</v>
+      </c>
+      <c r="AA112" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC112" t="n">
+        <v>681</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
@@ -8538,17 +10518,39 @@
       <c r="R113" t="n">
         <v>798</v>
       </c>
-      <c r="S113" t="inlineStr"/>
-      <c r="T113" t="inlineStr"/>
-      <c r="U113" t="inlineStr"/>
-      <c r="V113" t="inlineStr"/>
-      <c r="W113" t="inlineStr"/>
-      <c r="X113" t="inlineStr"/>
-      <c r="Y113" t="inlineStr"/>
-      <c r="Z113" t="inlineStr"/>
-      <c r="AA113" t="inlineStr"/>
-      <c r="AB113" t="inlineStr"/>
-      <c r="AC113" t="inlineStr"/>
+      <c r="S113" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T113" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U113" t="n">
+        <v>10827127</v>
+      </c>
+      <c r="V113" t="n">
+        <v>7193</v>
+      </c>
+      <c r="W113" t="n">
+        <v>0</v>
+      </c>
+      <c r="X113" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y113" t="n">
+        <v>998</v>
+      </c>
+      <c r="Z113" t="n">
+        <v>12.184</v>
+      </c>
+      <c r="AA113" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC113" t="n">
+        <v>681</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
@@ -8605,17 +10607,39 @@
       <c r="R114" t="n">
         <v>799</v>
       </c>
-      <c r="S114" t="inlineStr"/>
-      <c r="T114" t="inlineStr"/>
-      <c r="U114" t="inlineStr"/>
-      <c r="V114" t="inlineStr"/>
-      <c r="W114" t="inlineStr"/>
-      <c r="X114" t="inlineStr"/>
-      <c r="Y114" t="inlineStr"/>
-      <c r="Z114" t="inlineStr"/>
-      <c r="AA114" t="inlineStr"/>
-      <c r="AB114" t="inlineStr"/>
-      <c r="AC114" t="inlineStr"/>
+      <c r="S114" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T114" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U114" t="n">
+        <v>10827127</v>
+      </c>
+      <c r="V114" t="n">
+        <v>7193</v>
+      </c>
+      <c r="W114" t="n">
+        <v>0</v>
+      </c>
+      <c r="X114" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y114" t="n">
+        <v>998</v>
+      </c>
+      <c r="Z114" t="n">
+        <v>12.184</v>
+      </c>
+      <c r="AA114" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC114" t="n">
+        <v>681</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
@@ -8672,17 +10696,39 @@
       <c r="R115" t="n">
         <v>799</v>
       </c>
-      <c r="S115" t="inlineStr"/>
-      <c r="T115" t="inlineStr"/>
-      <c r="U115" t="inlineStr"/>
-      <c r="V115" t="inlineStr"/>
-      <c r="W115" t="inlineStr"/>
-      <c r="X115" t="inlineStr"/>
-      <c r="Y115" t="inlineStr"/>
-      <c r="Z115" t="inlineStr"/>
-      <c r="AA115" t="inlineStr"/>
-      <c r="AB115" t="inlineStr"/>
-      <c r="AC115" t="inlineStr"/>
+      <c r="S115" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T115" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U115" t="n">
+        <v>10827127</v>
+      </c>
+      <c r="V115" t="n">
+        <v>7193</v>
+      </c>
+      <c r="W115" t="n">
+        <v>0</v>
+      </c>
+      <c r="X115" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y115" t="n">
+        <v>998</v>
+      </c>
+      <c r="Z115" t="n">
+        <v>12.184</v>
+      </c>
+      <c r="AA115" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC115" t="n">
+        <v>681</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
@@ -8828,17 +10874,39 @@
       <c r="R117" t="n">
         <v>799</v>
       </c>
-      <c r="S117" t="inlineStr"/>
-      <c r="T117" t="inlineStr"/>
-      <c r="U117" t="inlineStr"/>
-      <c r="V117" t="inlineStr"/>
-      <c r="W117" t="inlineStr"/>
-      <c r="X117" t="inlineStr"/>
-      <c r="Y117" t="inlineStr"/>
-      <c r="Z117" t="inlineStr"/>
-      <c r="AA117" t="inlineStr"/>
-      <c r="AB117" t="inlineStr"/>
-      <c r="AC117" t="inlineStr"/>
+      <c r="S117" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T117" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U117" t="n">
+        <v>10827427</v>
+      </c>
+      <c r="V117" t="n">
+        <v>7193</v>
+      </c>
+      <c r="W117" t="n">
+        <v>0</v>
+      </c>
+      <c r="X117" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y117" t="n">
+        <v>998</v>
+      </c>
+      <c r="Z117" t="n">
+        <v>12.184</v>
+      </c>
+      <c r="AA117" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC117" t="n">
+        <v>664</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
@@ -8895,17 +10963,39 @@
       <c r="R118" t="n">
         <v>798</v>
       </c>
-      <c r="S118" t="inlineStr"/>
-      <c r="T118" t="inlineStr"/>
-      <c r="U118" t="inlineStr"/>
-      <c r="V118" t="inlineStr"/>
-      <c r="W118" t="inlineStr"/>
-      <c r="X118" t="inlineStr"/>
-      <c r="Y118" t="inlineStr"/>
-      <c r="Z118" t="inlineStr"/>
-      <c r="AA118" t="inlineStr"/>
-      <c r="AB118" t="inlineStr"/>
-      <c r="AC118" t="inlineStr"/>
+      <c r="S118" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T118" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U118" t="n">
+        <v>10827427</v>
+      </c>
+      <c r="V118" t="n">
+        <v>7193</v>
+      </c>
+      <c r="W118" t="n">
+        <v>0</v>
+      </c>
+      <c r="X118" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y118" t="n">
+        <v>998</v>
+      </c>
+      <c r="Z118" t="n">
+        <v>12.184</v>
+      </c>
+      <c r="AA118" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC118" t="n">
+        <v>664</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -8962,17 +11052,39 @@
       <c r="R119" t="n">
         <v>799</v>
       </c>
-      <c r="S119" t="inlineStr"/>
-      <c r="T119" t="inlineStr"/>
-      <c r="U119" t="inlineStr"/>
-      <c r="V119" t="inlineStr"/>
-      <c r="W119" t="inlineStr"/>
-      <c r="X119" t="inlineStr"/>
-      <c r="Y119" t="inlineStr"/>
-      <c r="Z119" t="inlineStr"/>
-      <c r="AA119" t="inlineStr"/>
-      <c r="AB119" t="inlineStr"/>
-      <c r="AC119" t="inlineStr"/>
+      <c r="S119" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T119" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U119" t="n">
+        <v>10827427</v>
+      </c>
+      <c r="V119" t="n">
+        <v>7193</v>
+      </c>
+      <c r="W119" t="n">
+        <v>0</v>
+      </c>
+      <c r="X119" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y119" t="n">
+        <v>998</v>
+      </c>
+      <c r="Z119" t="n">
+        <v>12.184</v>
+      </c>
+      <c r="AA119" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC119" t="n">
+        <v>664</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
@@ -9029,17 +11141,39 @@
       <c r="R120" t="n">
         <v>800</v>
       </c>
-      <c r="S120" t="inlineStr"/>
-      <c r="T120" t="inlineStr"/>
-      <c r="U120" t="inlineStr"/>
-      <c r="V120" t="inlineStr"/>
-      <c r="W120" t="inlineStr"/>
-      <c r="X120" t="inlineStr"/>
-      <c r="Y120" t="inlineStr"/>
-      <c r="Z120" t="inlineStr"/>
-      <c r="AA120" t="inlineStr"/>
-      <c r="AB120" t="inlineStr"/>
-      <c r="AC120" t="inlineStr"/>
+      <c r="S120" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T120" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U120" t="n">
+        <v>10827427</v>
+      </c>
+      <c r="V120" t="n">
+        <v>7193</v>
+      </c>
+      <c r="W120" t="n">
+        <v>0</v>
+      </c>
+      <c r="X120" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y120" t="n">
+        <v>998</v>
+      </c>
+      <c r="Z120" t="n">
+        <v>12.184</v>
+      </c>
+      <c r="AA120" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC120" t="n">
+        <v>664</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
@@ -9096,17 +11230,39 @@
       <c r="R121" t="n">
         <v>800</v>
       </c>
-      <c r="S121" t="inlineStr"/>
-      <c r="T121" t="inlineStr"/>
-      <c r="U121" t="inlineStr"/>
-      <c r="V121" t="inlineStr"/>
-      <c r="W121" t="inlineStr"/>
-      <c r="X121" t="inlineStr"/>
-      <c r="Y121" t="inlineStr"/>
-      <c r="Z121" t="inlineStr"/>
-      <c r="AA121" t="inlineStr"/>
-      <c r="AB121" t="inlineStr"/>
-      <c r="AC121" t="inlineStr"/>
+      <c r="S121" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T121" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U121" t="n">
+        <v>10827427</v>
+      </c>
+      <c r="V121" t="n">
+        <v>7193</v>
+      </c>
+      <c r="W121" t="n">
+        <v>0</v>
+      </c>
+      <c r="X121" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y121" t="n">
+        <v>998</v>
+      </c>
+      <c r="Z121" t="n">
+        <v>12.184</v>
+      </c>
+      <c r="AA121" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC121" t="n">
+        <v>664</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
@@ -9163,17 +11319,39 @@
       <c r="R122" t="n">
         <v>800</v>
       </c>
-      <c r="S122" t="inlineStr"/>
-      <c r="T122" t="inlineStr"/>
-      <c r="U122" t="inlineStr"/>
-      <c r="V122" t="inlineStr"/>
-      <c r="W122" t="inlineStr"/>
-      <c r="X122" t="inlineStr"/>
-      <c r="Y122" t="inlineStr"/>
-      <c r="Z122" t="inlineStr"/>
-      <c r="AA122" t="inlineStr"/>
-      <c r="AB122" t="inlineStr"/>
-      <c r="AC122" t="inlineStr"/>
+      <c r="S122" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T122" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U122" t="n">
+        <v>10827427</v>
+      </c>
+      <c r="V122" t="n">
+        <v>7193</v>
+      </c>
+      <c r="W122" t="n">
+        <v>0</v>
+      </c>
+      <c r="X122" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y122" t="n">
+        <v>998</v>
+      </c>
+      <c r="Z122" t="n">
+        <v>12.184</v>
+      </c>
+      <c r="AA122" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB122" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC122" t="n">
+        <v>664</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
@@ -9230,17 +11408,39 @@
       <c r="R123" t="n">
         <v>801</v>
       </c>
-      <c r="S123" t="inlineStr"/>
-      <c r="T123" t="inlineStr"/>
-      <c r="U123" t="inlineStr"/>
-      <c r="V123" t="inlineStr"/>
-      <c r="W123" t="inlineStr"/>
-      <c r="X123" t="inlineStr"/>
-      <c r="Y123" t="inlineStr"/>
-      <c r="Z123" t="inlineStr"/>
-      <c r="AA123" t="inlineStr"/>
-      <c r="AB123" t="inlineStr"/>
-      <c r="AC123" t="inlineStr"/>
+      <c r="S123" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T123" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U123" t="n">
+        <v>10827427</v>
+      </c>
+      <c r="V123" t="n">
+        <v>7193</v>
+      </c>
+      <c r="W123" t="n">
+        <v>0</v>
+      </c>
+      <c r="X123" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y123" t="n">
+        <v>998</v>
+      </c>
+      <c r="Z123" t="n">
+        <v>12.184</v>
+      </c>
+      <c r="AA123" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB123" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC123" t="n">
+        <v>664</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
@@ -9297,17 +11497,39 @@
       <c r="R124" t="n">
         <v>801</v>
       </c>
-      <c r="S124" t="inlineStr"/>
-      <c r="T124" t="inlineStr"/>
-      <c r="U124" t="inlineStr"/>
-      <c r="V124" t="inlineStr"/>
-      <c r="W124" t="inlineStr"/>
-      <c r="X124" t="inlineStr"/>
-      <c r="Y124" t="inlineStr"/>
-      <c r="Z124" t="inlineStr"/>
-      <c r="AA124" t="inlineStr"/>
-      <c r="AB124" t="inlineStr"/>
-      <c r="AC124" t="inlineStr"/>
+      <c r="S124" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T124" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U124" t="n">
+        <v>10827427</v>
+      </c>
+      <c r="V124" t="n">
+        <v>7193</v>
+      </c>
+      <c r="W124" t="n">
+        <v>0</v>
+      </c>
+      <c r="X124" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y124" t="n">
+        <v>998</v>
+      </c>
+      <c r="Z124" t="n">
+        <v>12.184</v>
+      </c>
+      <c r="AA124" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB124" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC124" t="n">
+        <v>664</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
@@ -9364,17 +11586,39 @@
       <c r="R125" t="n">
         <v>801</v>
       </c>
-      <c r="S125" t="inlineStr"/>
-      <c r="T125" t="inlineStr"/>
-      <c r="U125" t="inlineStr"/>
-      <c r="V125" t="inlineStr"/>
-      <c r="W125" t="inlineStr"/>
-      <c r="X125" t="inlineStr"/>
-      <c r="Y125" t="inlineStr"/>
-      <c r="Z125" t="inlineStr"/>
-      <c r="AA125" t="inlineStr"/>
-      <c r="AB125" t="inlineStr"/>
-      <c r="AC125" t="inlineStr"/>
+      <c r="S125" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T125" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U125" t="n">
+        <v>10827427</v>
+      </c>
+      <c r="V125" t="n">
+        <v>7193</v>
+      </c>
+      <c r="W125" t="n">
+        <v>0</v>
+      </c>
+      <c r="X125" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y125" t="n">
+        <v>998</v>
+      </c>
+      <c r="Z125" t="n">
+        <v>12.184</v>
+      </c>
+      <c r="AA125" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB125" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC125" t="n">
+        <v>664</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
@@ -9520,17 +11764,39 @@
       <c r="R127" t="n">
         <v>802</v>
       </c>
-      <c r="S127" t="inlineStr"/>
-      <c r="T127" t="inlineStr"/>
-      <c r="U127" t="inlineStr"/>
-      <c r="V127" t="inlineStr"/>
-      <c r="W127" t="inlineStr"/>
-      <c r="X127" t="inlineStr"/>
-      <c r="Y127" t="inlineStr"/>
-      <c r="Z127" t="inlineStr"/>
-      <c r="AA127" t="inlineStr"/>
-      <c r="AB127" t="inlineStr"/>
-      <c r="AC127" t="inlineStr"/>
+      <c r="S127" t="n">
+        <v>1504</v>
+      </c>
+      <c r="T127" t="n">
+        <v>0.394</v>
+      </c>
+      <c r="U127" t="n">
+        <v>10828027</v>
+      </c>
+      <c r="V127" t="n">
+        <v>7194</v>
+      </c>
+      <c r="W127" t="n">
+        <v>0</v>
+      </c>
+      <c r="X127" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y127" t="n">
+        <v>997</v>
+      </c>
+      <c r="Z127" t="n">
+        <v>12.172</v>
+      </c>
+      <c r="AA127" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB127" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC127" t="n">
+        <v>325</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
@@ -9587,17 +11853,39 @@
       <c r="R128" t="n">
         <v>801</v>
       </c>
-      <c r="S128" t="inlineStr"/>
-      <c r="T128" t="inlineStr"/>
-      <c r="U128" t="inlineStr"/>
-      <c r="V128" t="inlineStr"/>
-      <c r="W128" t="inlineStr"/>
-      <c r="X128" t="inlineStr"/>
-      <c r="Y128" t="inlineStr"/>
-      <c r="Z128" t="inlineStr"/>
-      <c r="AA128" t="inlineStr"/>
-      <c r="AB128" t="inlineStr"/>
-      <c r="AC128" t="inlineStr"/>
+      <c r="S128" t="n">
+        <v>1504</v>
+      </c>
+      <c r="T128" t="n">
+        <v>0.394</v>
+      </c>
+      <c r="U128" t="n">
+        <v>10828027</v>
+      </c>
+      <c r="V128" t="n">
+        <v>7194</v>
+      </c>
+      <c r="W128" t="n">
+        <v>0</v>
+      </c>
+      <c r="X128" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y128" t="n">
+        <v>997</v>
+      </c>
+      <c r="Z128" t="n">
+        <v>12.172</v>
+      </c>
+      <c r="AA128" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB128" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC128" t="n">
+        <v>325</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
@@ -9654,17 +11942,39 @@
       <c r="R129" t="n">
         <v>802</v>
       </c>
-      <c r="S129" t="inlineStr"/>
-      <c r="T129" t="inlineStr"/>
-      <c r="U129" t="inlineStr"/>
-      <c r="V129" t="inlineStr"/>
-      <c r="W129" t="inlineStr"/>
-      <c r="X129" t="inlineStr"/>
-      <c r="Y129" t="inlineStr"/>
-      <c r="Z129" t="inlineStr"/>
-      <c r="AA129" t="inlineStr"/>
-      <c r="AB129" t="inlineStr"/>
-      <c r="AC129" t="inlineStr"/>
+      <c r="S129" t="n">
+        <v>1504</v>
+      </c>
+      <c r="T129" t="n">
+        <v>0.394</v>
+      </c>
+      <c r="U129" t="n">
+        <v>10828027</v>
+      </c>
+      <c r="V129" t="n">
+        <v>7194</v>
+      </c>
+      <c r="W129" t="n">
+        <v>0</v>
+      </c>
+      <c r="X129" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y129" t="n">
+        <v>997</v>
+      </c>
+      <c r="Z129" t="n">
+        <v>12.172</v>
+      </c>
+      <c r="AA129" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB129" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC129" t="n">
+        <v>325</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
@@ -9721,17 +12031,39 @@
       <c r="R130" t="n">
         <v>803</v>
       </c>
-      <c r="S130" t="inlineStr"/>
-      <c r="T130" t="inlineStr"/>
-      <c r="U130" t="inlineStr"/>
-      <c r="V130" t="inlineStr"/>
-      <c r="W130" t="inlineStr"/>
-      <c r="X130" t="inlineStr"/>
-      <c r="Y130" t="inlineStr"/>
-      <c r="Z130" t="inlineStr"/>
-      <c r="AA130" t="inlineStr"/>
-      <c r="AB130" t="inlineStr"/>
-      <c r="AC130" t="inlineStr"/>
+      <c r="S130" t="n">
+        <v>1504</v>
+      </c>
+      <c r="T130" t="n">
+        <v>0.394</v>
+      </c>
+      <c r="U130" t="n">
+        <v>10828027</v>
+      </c>
+      <c r="V130" t="n">
+        <v>7194</v>
+      </c>
+      <c r="W130" t="n">
+        <v>0</v>
+      </c>
+      <c r="X130" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y130" t="n">
+        <v>997</v>
+      </c>
+      <c r="Z130" t="n">
+        <v>12.172</v>
+      </c>
+      <c r="AA130" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB130" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC130" t="n">
+        <v>325</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
@@ -9877,17 +12209,39 @@
       <c r="R132" t="n">
         <v>802</v>
       </c>
-      <c r="S132" t="inlineStr"/>
-      <c r="T132" t="inlineStr"/>
-      <c r="U132" t="inlineStr"/>
-      <c r="V132" t="inlineStr"/>
-      <c r="W132" t="inlineStr"/>
-      <c r="X132" t="inlineStr"/>
-      <c r="Y132" t="inlineStr"/>
-      <c r="Z132" t="inlineStr"/>
-      <c r="AA132" t="inlineStr"/>
-      <c r="AB132" t="inlineStr"/>
-      <c r="AC132" t="inlineStr"/>
+      <c r="S132" t="n">
+        <v>1536</v>
+      </c>
+      <c r="T132" t="n">
+        <v>0.402</v>
+      </c>
+      <c r="U132" t="n">
+        <v>10828327</v>
+      </c>
+      <c r="V132" t="n">
+        <v>7195</v>
+      </c>
+      <c r="W132" t="n">
+        <v>0</v>
+      </c>
+      <c r="X132" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y132" t="n">
+        <v>996</v>
+      </c>
+      <c r="Z132" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="AA132" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB132" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC132" t="n">
+        <v>870</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
@@ -9944,17 +12298,39 @@
       <c r="R133" t="n">
         <v>802</v>
       </c>
-      <c r="S133" t="inlineStr"/>
-      <c r="T133" t="inlineStr"/>
-      <c r="U133" t="inlineStr"/>
-      <c r="V133" t="inlineStr"/>
-      <c r="W133" t="inlineStr"/>
-      <c r="X133" t="inlineStr"/>
-      <c r="Y133" t="inlineStr"/>
-      <c r="Z133" t="inlineStr"/>
-      <c r="AA133" t="inlineStr"/>
-      <c r="AB133" t="inlineStr"/>
-      <c r="AC133" t="inlineStr"/>
+      <c r="S133" t="n">
+        <v>1536</v>
+      </c>
+      <c r="T133" t="n">
+        <v>0.402</v>
+      </c>
+      <c r="U133" t="n">
+        <v>10828327</v>
+      </c>
+      <c r="V133" t="n">
+        <v>7195</v>
+      </c>
+      <c r="W133" t="n">
+        <v>0</v>
+      </c>
+      <c r="X133" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y133" t="n">
+        <v>996</v>
+      </c>
+      <c r="Z133" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="AA133" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB133" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC133" t="n">
+        <v>870</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
@@ -10011,17 +12387,39 @@
       <c r="R134" t="n">
         <v>802</v>
       </c>
-      <c r="S134" t="inlineStr"/>
-      <c r="T134" t="inlineStr"/>
-      <c r="U134" t="inlineStr"/>
-      <c r="V134" t="inlineStr"/>
-      <c r="W134" t="inlineStr"/>
-      <c r="X134" t="inlineStr"/>
-      <c r="Y134" t="inlineStr"/>
-      <c r="Z134" t="inlineStr"/>
-      <c r="AA134" t="inlineStr"/>
-      <c r="AB134" t="inlineStr"/>
-      <c r="AC134" t="inlineStr"/>
+      <c r="S134" t="n">
+        <v>1536</v>
+      </c>
+      <c r="T134" t="n">
+        <v>0.402</v>
+      </c>
+      <c r="U134" t="n">
+        <v>10828327</v>
+      </c>
+      <c r="V134" t="n">
+        <v>7195</v>
+      </c>
+      <c r="W134" t="n">
+        <v>0</v>
+      </c>
+      <c r="X134" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y134" t="n">
+        <v>996</v>
+      </c>
+      <c r="Z134" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="AA134" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB134" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC134" t="n">
+        <v>870</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
@@ -10078,17 +12476,39 @@
       <c r="R135" t="n">
         <v>801</v>
       </c>
-      <c r="S135" t="inlineStr"/>
-      <c r="T135" t="inlineStr"/>
-      <c r="U135" t="inlineStr"/>
-      <c r="V135" t="inlineStr"/>
-      <c r="W135" t="inlineStr"/>
-      <c r="X135" t="inlineStr"/>
-      <c r="Y135" t="inlineStr"/>
-      <c r="Z135" t="inlineStr"/>
-      <c r="AA135" t="inlineStr"/>
-      <c r="AB135" t="inlineStr"/>
-      <c r="AC135" t="inlineStr"/>
+      <c r="S135" t="n">
+        <v>1536</v>
+      </c>
+      <c r="T135" t="n">
+        <v>0.402</v>
+      </c>
+      <c r="U135" t="n">
+        <v>10828327</v>
+      </c>
+      <c r="V135" t="n">
+        <v>7195</v>
+      </c>
+      <c r="W135" t="n">
+        <v>0</v>
+      </c>
+      <c r="X135" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y135" t="n">
+        <v>996</v>
+      </c>
+      <c r="Z135" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="AA135" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC135" t="n">
+        <v>870</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
@@ -10234,17 +12654,39 @@
       <c r="R137" t="n">
         <v>802</v>
       </c>
-      <c r="S137" t="inlineStr"/>
-      <c r="T137" t="inlineStr"/>
-      <c r="U137" t="inlineStr"/>
-      <c r="V137" t="inlineStr"/>
-      <c r="W137" t="inlineStr"/>
-      <c r="X137" t="inlineStr"/>
-      <c r="Y137" t="inlineStr"/>
-      <c r="Z137" t="inlineStr"/>
-      <c r="AA137" t="inlineStr"/>
-      <c r="AB137" t="inlineStr"/>
-      <c r="AC137" t="inlineStr"/>
+      <c r="S137" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T137" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U137" t="n">
+        <v>10828627</v>
+      </c>
+      <c r="V137" t="n">
+        <v>7196</v>
+      </c>
+      <c r="W137" t="n">
+        <v>32</v>
+      </c>
+      <c r="X137" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y137" t="n">
+        <v>995</v>
+      </c>
+      <c r="Z137" t="n">
+        <v>12.147</v>
+      </c>
+      <c r="AA137" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB137" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC137" t="n">
+        <v>328</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
@@ -10301,17 +12743,39 @@
       <c r="R138" t="n">
         <v>801</v>
       </c>
-      <c r="S138" t="inlineStr"/>
-      <c r="T138" t="inlineStr"/>
-      <c r="U138" t="inlineStr"/>
-      <c r="V138" t="inlineStr"/>
-      <c r="W138" t="inlineStr"/>
-      <c r="X138" t="inlineStr"/>
-      <c r="Y138" t="inlineStr"/>
-      <c r="Z138" t="inlineStr"/>
-      <c r="AA138" t="inlineStr"/>
-      <c r="AB138" t="inlineStr"/>
-      <c r="AC138" t="inlineStr"/>
+      <c r="S138" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T138" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U138" t="n">
+        <v>10828627</v>
+      </c>
+      <c r="V138" t="n">
+        <v>7196</v>
+      </c>
+      <c r="W138" t="n">
+        <v>32</v>
+      </c>
+      <c r="X138" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y138" t="n">
+        <v>995</v>
+      </c>
+      <c r="Z138" t="n">
+        <v>12.147</v>
+      </c>
+      <c r="AA138" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB138" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC138" t="n">
+        <v>328</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
@@ -10368,17 +12832,39 @@
       <c r="R139" t="n">
         <v>802</v>
       </c>
-      <c r="S139" t="inlineStr"/>
-      <c r="T139" t="inlineStr"/>
-      <c r="U139" t="inlineStr"/>
-      <c r="V139" t="inlineStr"/>
-      <c r="W139" t="inlineStr"/>
-      <c r="X139" t="inlineStr"/>
-      <c r="Y139" t="inlineStr"/>
-      <c r="Z139" t="inlineStr"/>
-      <c r="AA139" t="inlineStr"/>
-      <c r="AB139" t="inlineStr"/>
-      <c r="AC139" t="inlineStr"/>
+      <c r="S139" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T139" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U139" t="n">
+        <v>10828627</v>
+      </c>
+      <c r="V139" t="n">
+        <v>7196</v>
+      </c>
+      <c r="W139" t="n">
+        <v>32</v>
+      </c>
+      <c r="X139" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y139" t="n">
+        <v>995</v>
+      </c>
+      <c r="Z139" t="n">
+        <v>12.147</v>
+      </c>
+      <c r="AA139" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB139" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC139" t="n">
+        <v>328</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
@@ -10435,17 +12921,39 @@
       <c r="R140" t="n">
         <v>801</v>
       </c>
-      <c r="S140" t="inlineStr"/>
-      <c r="T140" t="inlineStr"/>
-      <c r="U140" t="inlineStr"/>
-      <c r="V140" t="inlineStr"/>
-      <c r="W140" t="inlineStr"/>
-      <c r="X140" t="inlineStr"/>
-      <c r="Y140" t="inlineStr"/>
-      <c r="Z140" t="inlineStr"/>
-      <c r="AA140" t="inlineStr"/>
-      <c r="AB140" t="inlineStr"/>
-      <c r="AC140" t="inlineStr"/>
+      <c r="S140" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T140" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U140" t="n">
+        <v>10828627</v>
+      </c>
+      <c r="V140" t="n">
+        <v>7196</v>
+      </c>
+      <c r="W140" t="n">
+        <v>32</v>
+      </c>
+      <c r="X140" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y140" t="n">
+        <v>995</v>
+      </c>
+      <c r="Z140" t="n">
+        <v>12.147</v>
+      </c>
+      <c r="AA140" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC140" t="n">
+        <v>328</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
@@ -10591,17 +13099,39 @@
       <c r="R142" t="n">
         <v>800</v>
       </c>
-      <c r="S142" t="inlineStr"/>
-      <c r="T142" t="inlineStr"/>
-      <c r="U142" t="inlineStr"/>
-      <c r="V142" t="inlineStr"/>
-      <c r="W142" t="inlineStr"/>
-      <c r="X142" t="inlineStr"/>
-      <c r="Y142" t="inlineStr"/>
-      <c r="Z142" t="inlineStr"/>
-      <c r="AA142" t="inlineStr"/>
-      <c r="AB142" t="inlineStr"/>
-      <c r="AC142" t="inlineStr"/>
+      <c r="S142" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T142" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U142" t="n">
+        <v>10828927</v>
+      </c>
+      <c r="V142" t="n">
+        <v>7194</v>
+      </c>
+      <c r="W142" t="n">
+        <v>0</v>
+      </c>
+      <c r="X142" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y142" t="n">
+        <v>997</v>
+      </c>
+      <c r="Z142" t="n">
+        <v>12.172</v>
+      </c>
+      <c r="AA142" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC142" t="n">
+        <v>332</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
@@ -10658,17 +13188,39 @@
       <c r="R143" t="n">
         <v>799</v>
       </c>
-      <c r="S143" t="inlineStr"/>
-      <c r="T143" t="inlineStr"/>
-      <c r="U143" t="inlineStr"/>
-      <c r="V143" t="inlineStr"/>
-      <c r="W143" t="inlineStr"/>
-      <c r="X143" t="inlineStr"/>
-      <c r="Y143" t="inlineStr"/>
-      <c r="Z143" t="inlineStr"/>
-      <c r="AA143" t="inlineStr"/>
-      <c r="AB143" t="inlineStr"/>
-      <c r="AC143" t="inlineStr"/>
+      <c r="S143" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T143" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U143" t="n">
+        <v>10828927</v>
+      </c>
+      <c r="V143" t="n">
+        <v>7194</v>
+      </c>
+      <c r="W143" t="n">
+        <v>0</v>
+      </c>
+      <c r="X143" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y143" t="n">
+        <v>997</v>
+      </c>
+      <c r="Z143" t="n">
+        <v>12.172</v>
+      </c>
+      <c r="AA143" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB143" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC143" t="n">
+        <v>332</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
@@ -10677,35 +13229,87 @@
       <c r="B144" t="n">
         <v>96.81</v>
       </c>
-      <c r="C144" t="inlineStr"/>
-      <c r="D144" t="inlineStr"/>
-      <c r="E144" t="inlineStr"/>
-      <c r="F144" t="inlineStr"/>
+      <c r="C144" t="n">
+        <v>0</v>
+      </c>
+      <c r="D144" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="E144" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0.26</v>
+      </c>
       <c r="G144" t="n">
         <v>0.22</v>
       </c>
-      <c r="H144" t="inlineStr"/>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="inlineStr"/>
-      <c r="N144" t="inlineStr"/>
-      <c r="O144" t="inlineStr"/>
-      <c r="P144" t="inlineStr"/>
-      <c r="Q144" t="inlineStr"/>
-      <c r="R144" t="inlineStr"/>
-      <c r="S144" t="inlineStr"/>
-      <c r="T144" t="inlineStr"/>
-      <c r="U144" t="inlineStr"/>
-      <c r="V144" t="inlineStr"/>
-      <c r="W144" t="inlineStr"/>
-      <c r="X144" t="inlineStr"/>
-      <c r="Y144" t="inlineStr"/>
-      <c r="Z144" t="inlineStr"/>
-      <c r="AA144" t="inlineStr"/>
-      <c r="AB144" t="inlineStr"/>
-      <c r="AC144" t="inlineStr"/>
+      <c r="H144" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="K144" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="L144" t="n">
+        <v>3002</v>
+      </c>
+      <c r="M144" t="n">
+        <v>159</v>
+      </c>
+      <c r="N144" t="n">
+        <v>21.09</v>
+      </c>
+      <c r="O144" t="n">
+        <v>14.15</v>
+      </c>
+      <c r="P144" t="n">
+        <v>92</v>
+      </c>
+      <c r="Q144" t="n">
+        <v>2990</v>
+      </c>
+      <c r="R144" t="n">
+        <v>799</v>
+      </c>
+      <c r="S144" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T144" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U144" t="n">
+        <v>10828927</v>
+      </c>
+      <c r="V144" t="n">
+        <v>7194</v>
+      </c>
+      <c r="W144" t="n">
+        <v>0</v>
+      </c>
+      <c r="X144" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y144" t="n">
+        <v>997</v>
+      </c>
+      <c r="Z144" t="n">
+        <v>12.172</v>
+      </c>
+      <c r="AA144" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB144" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC144" t="n">
+        <v>332</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
